--- a/BackTest/2019-10-31 BackTest LINK.xlsx
+++ b/BackTest/2019-10-31 BackTest LINK.xlsx
@@ -1431,17 +1431,13 @@
         <v>2947</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>2946</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2946</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
@@ -1470,22 +1466,14 @@
         <v>2946</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>2945</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1513,280 +1501,230 @@
         <v>2945</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>2945</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2944</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2944</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2944</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2944</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1357.5326</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2944.333333333333</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2944</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2924</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2944</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2924</v>
+      </c>
+      <c r="F34" t="n">
+        <v>221.6225</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2937.333333333333</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2926</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2926</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2926</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2926</v>
+      </c>
+      <c r="F35" t="n">
+        <v>48.7746</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2931.333333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2928</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2928</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2928</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2928</v>
+      </c>
+      <c r="F36" t="n">
+        <v>885.0014</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2926</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2942</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2942</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2942</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2942</v>
+      </c>
+      <c r="F37" t="n">
+        <v>180.1862</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2932</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2942</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2955</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2955</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2942</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1320.5333</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2941.666666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2942</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2944</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2944</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2944</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2944</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1357.5326</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2944.333333333333</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2944</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2944</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2924</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2944</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2924</v>
-      </c>
-      <c r="F34" t="n">
-        <v>221.6225</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2937.333333333333</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2944</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2926</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2926</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2926</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2926</v>
-      </c>
-      <c r="F35" t="n">
-        <v>48.7746</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2931.333333333333</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2926</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2928</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2928</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2928</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2928</v>
-      </c>
-      <c r="F36" t="n">
-        <v>885.0014</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2926</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2928</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>2942</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2942</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2942</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2942</v>
-      </c>
-      <c r="F37" t="n">
-        <v>180.1862</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2932</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2942</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2942</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2955</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2955</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2942</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1320.5333</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2941.666666666667</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2942</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1814,17 +1752,13 @@
         <v>2950.666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>2955</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2946</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1857,17 +1791,13 @@
         <v>2950</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>2940</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2946</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1900,17 +1830,13 @@
         <v>2950.333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>2956</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2946</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1943,17 +1869,13 @@
         <v>2955.666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>2965</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2946</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1986,17 +1908,13 @@
         <v>2967.333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>2975</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2946</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2029,17 +1947,13 @@
         <v>2973.333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>2974</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2946</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,9 +1992,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,9 +2031,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,9 +2070,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2201,9 +2109,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2242,9 +2148,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2283,9 +2187,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2324,9 +2226,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2365,9 +2265,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2406,9 +2304,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2447,9 +2343,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2488,9 +2382,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2529,9 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,9 +2460,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2611,9 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2652,9 +2538,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,9 +2577,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,9 +2616,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2775,9 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2816,9 +2694,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2857,9 +2733,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2898,9 +2772,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2939,9 +2811,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2980,9 +2850,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3021,9 +2889,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3062,9 +2928,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3103,9 +2967,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3144,9 +3006,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,9 +3045,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3226,9 +3084,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3267,9 +3123,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3308,9 +3162,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3349,9 +3201,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,9 +3240,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3431,9 +3279,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,9 +3318,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3513,9 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3554,9 +3396,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3595,9 +3435,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,9 +3474,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3677,9 +3513,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3718,9 +3552,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3759,9 +3591,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3800,9 +3630,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3841,9 +3669,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3882,9 +3708,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3923,9 +3747,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3964,9 +3786,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4005,9 +3825,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,9 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4087,9 +3903,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4128,9 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4169,9 +3981,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4210,9 +4020,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,9 +4059,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4292,9 +4098,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,9 +4137,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4374,9 +4176,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4415,9 +4215,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4456,9 +4254,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,9 +4293,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,9 +4332,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,9 +4371,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,9 +4410,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,9 +4449,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,9 +4488,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,9 +4527,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,9 +4566,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,9 +4605,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4866,9 +4644,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4907,9 +4683,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,20 +4719,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2946</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4989,14 +4759,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5030,14 +4794,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +4829,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5112,14 +4864,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5153,14 +4899,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5191,17 +4931,11 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5235,16 +4969,10 @@
         <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>1.024531568228106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5308,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5378,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5693,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5833,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest LINK.xlsx
+++ b/BackTest/2019-10-31 BackTest LINK.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M272"/>
+  <dimension ref="A1:M273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2988</v>
+        <v>2994</v>
       </c>
       <c r="C2" t="n">
-        <v>2988</v>
+        <v>2993</v>
       </c>
       <c r="D2" t="n">
-        <v>2988</v>
+        <v>2994</v>
       </c>
       <c r="E2" t="n">
-        <v>2988</v>
+        <v>2993</v>
       </c>
       <c r="F2" t="n">
-        <v>50.1056</v>
+        <v>37.2086</v>
       </c>
       <c r="G2" t="n">
-        <v>2991.333333333333</v>
+        <v>3019.716666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>2988</v>
       </c>
       <c r="C3" t="n">
-        <v>2983</v>
+        <v>2988</v>
       </c>
       <c r="D3" t="n">
         <v>2988</v>
       </c>
       <c r="E3" t="n">
-        <v>2983</v>
+        <v>2988</v>
       </c>
       <c r="F3" t="n">
-        <v>496.8496</v>
+        <v>50.1056</v>
       </c>
       <c r="G3" t="n">
-        <v>2988</v>
+        <v>3019.15</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2982</v>
+        <v>2988</v>
       </c>
       <c r="C4" t="n">
-        <v>2978</v>
+        <v>2983</v>
       </c>
       <c r="D4" t="n">
-        <v>2982</v>
+        <v>2988</v>
       </c>
       <c r="E4" t="n">
-        <v>2978</v>
+        <v>2983</v>
       </c>
       <c r="F4" t="n">
-        <v>210.2962</v>
+        <v>496.8496</v>
       </c>
       <c r="G4" t="n">
-        <v>2983</v>
+        <v>3018.433333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2978</v>
+        <v>2982</v>
       </c>
       <c r="C5" t="n">
         <v>2978</v>
       </c>
       <c r="D5" t="n">
-        <v>2978</v>
+        <v>2982</v>
       </c>
       <c r="E5" t="n">
         <v>2978</v>
       </c>
       <c r="F5" t="n">
-        <v>127.4808</v>
+        <v>210.2962</v>
       </c>
       <c r="G5" t="n">
-        <v>2979.666666666667</v>
+        <v>3017.633333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="C6" t="n">
-        <v>2970</v>
+        <v>2978</v>
       </c>
       <c r="D6" t="n">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="E6" t="n">
-        <v>2969</v>
+        <v>2978</v>
       </c>
       <c r="F6" t="n">
-        <v>4774.9477</v>
+        <v>127.4808</v>
       </c>
       <c r="G6" t="n">
-        <v>2975.333333333333</v>
+        <v>3016.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2970</v>
+        <v>2977</v>
       </c>
       <c r="C7" t="n">
         <v>2970</v>
       </c>
       <c r="D7" t="n">
-        <v>2970</v>
+        <v>2977</v>
       </c>
       <c r="E7" t="n">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="F7" t="n">
-        <v>60.2516</v>
+        <v>4774.9477</v>
       </c>
       <c r="G7" t="n">
-        <v>2972.666666666667</v>
+        <v>3015.833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>2970</v>
       </c>
       <c r="C8" t="n">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="D8" t="n">
         <v>2970</v>
       </c>
       <c r="E8" t="n">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="F8" t="n">
-        <v>42.5575</v>
+        <v>60.2516</v>
       </c>
       <c r="G8" t="n">
-        <v>2969.333333333333</v>
+        <v>3014.75</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="C9" t="n">
         <v>2968</v>
       </c>
       <c r="D9" t="n">
+        <v>2970</v>
+      </c>
+      <c r="E9" t="n">
         <v>2968</v>
       </c>
-      <c r="E9" t="n">
-        <v>2965</v>
-      </c>
       <c r="F9" t="n">
-        <v>2125.8677</v>
+        <v>42.5575</v>
       </c>
       <c r="G9" t="n">
-        <v>2968.666666666667</v>
+        <v>3013.566666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>2968</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2968</v>
+      </c>
+      <c r="E10" t="n">
         <v>2965</v>
       </c>
-      <c r="C10" t="n">
-        <v>2961</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2965</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2961</v>
-      </c>
       <c r="F10" t="n">
-        <v>283.5219</v>
+        <v>2125.8677</v>
       </c>
       <c r="G10" t="n">
-        <v>2965.666666666667</v>
+        <v>3012.45</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2960</v>
+        <v>2965</v>
       </c>
       <c r="C11" t="n">
-        <v>2954</v>
+        <v>2961</v>
       </c>
       <c r="D11" t="n">
-        <v>2960</v>
+        <v>2965</v>
       </c>
       <c r="E11" t="n">
-        <v>2954</v>
+        <v>2961</v>
       </c>
       <c r="F11" t="n">
-        <v>300.7746</v>
+        <v>283.5219</v>
       </c>
       <c r="G11" t="n">
-        <v>2961</v>
+        <v>3011.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2953</v>
+        <v>2960</v>
       </c>
       <c r="C12" t="n">
-        <v>2950</v>
+        <v>2954</v>
       </c>
       <c r="D12" t="n">
-        <v>2953</v>
+        <v>2960</v>
       </c>
       <c r="E12" t="n">
-        <v>2950</v>
+        <v>2954</v>
       </c>
       <c r="F12" t="n">
-        <v>224.3642</v>
+        <v>300.7746</v>
       </c>
       <c r="G12" t="n">
-        <v>2955</v>
+        <v>3009.85</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2949</v>
+        <v>2953</v>
       </c>
       <c r="C13" t="n">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="D13" t="n">
+        <v>2953</v>
+      </c>
+      <c r="E13" t="n">
         <v>2950</v>
       </c>
-      <c r="E13" t="n">
-        <v>2946</v>
-      </c>
       <c r="F13" t="n">
-        <v>5578.0901</v>
+        <v>224.3642</v>
       </c>
       <c r="G13" t="n">
-        <v>2950.666666666667</v>
+        <v>3008.433333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>2949</v>
+      </c>
+      <c r="C14" t="n">
         <v>2948</v>
       </c>
-      <c r="C14" t="n">
-        <v>2953</v>
-      </c>
       <c r="D14" t="n">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="E14" t="n">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="F14" t="n">
-        <v>2705.8528</v>
+        <v>5578.0901</v>
       </c>
       <c r="G14" t="n">
-        <v>2950.333333333333</v>
+        <v>3007</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2959</v>
+        <v>2948</v>
       </c>
       <c r="C15" t="n">
-        <v>2959</v>
+        <v>2953</v>
       </c>
       <c r="D15" t="n">
-        <v>2959</v>
+        <v>2953</v>
       </c>
       <c r="E15" t="n">
-        <v>2959</v>
+        <v>2948</v>
       </c>
       <c r="F15" t="n">
-        <v>120.0101</v>
+        <v>2705.8528</v>
       </c>
       <c r="G15" t="n">
-        <v>2953.333333333333</v>
+        <v>3005.65</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>2959</v>
       </c>
       <c r="C16" t="n">
-        <v>2964</v>
+        <v>2959</v>
       </c>
       <c r="D16" t="n">
-        <v>2964</v>
+        <v>2959</v>
       </c>
       <c r="E16" t="n">
         <v>2959</v>
       </c>
       <c r="F16" t="n">
-        <v>342.5248546896086</v>
+        <v>120.0101</v>
       </c>
       <c r="G16" t="n">
-        <v>2958.666666666667</v>
+        <v>3004.233333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2953</v>
+        <v>2959</v>
       </c>
       <c r="C17" t="n">
-        <v>2953</v>
+        <v>2964</v>
       </c>
       <c r="D17" t="n">
-        <v>2953</v>
+        <v>2964</v>
       </c>
       <c r="E17" t="n">
-        <v>2953</v>
+        <v>2959</v>
       </c>
       <c r="F17" t="n">
-        <v>580.6268</v>
+        <v>342.5248546896086</v>
       </c>
       <c r="G17" t="n">
-        <v>2958.666666666667</v>
+        <v>3002.85</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>2953</v>
       </c>
       <c r="E18" t="n">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="F18" t="n">
-        <v>980.1224999999999</v>
+        <v>580.6268</v>
       </c>
       <c r="G18" t="n">
-        <v>2956.666666666667</v>
+        <v>3001.216666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>2953</v>
       </c>
       <c r="E19" t="n">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>980.1224999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>2953</v>
+        <v>2999.55</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="C20" t="n">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="D20" t="n">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="E20" t="n">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="F20" t="n">
-        <v>135.1675</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2952.333333333333</v>
+        <v>2997.883333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="C21" t="n">
-        <v>2957</v>
+        <v>2951</v>
       </c>
       <c r="D21" t="n">
-        <v>2957</v>
+        <v>2951</v>
       </c>
       <c r="E21" t="n">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="F21" t="n">
-        <v>281.3064</v>
+        <v>135.1675</v>
       </c>
       <c r="G21" t="n">
-        <v>2953.666666666667</v>
+        <v>2996.166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="C22" t="n">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="D22" t="n">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="E22" t="n">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="F22" t="n">
-        <v>22.1683</v>
+        <v>281.3064</v>
       </c>
       <c r="G22" t="n">
-        <v>2954.333333333333</v>
+        <v>2994.55</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="C23" t="n">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="D23" t="n">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="E23" t="n">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="F23" t="n">
-        <v>126.4109</v>
+        <v>22.1683</v>
       </c>
       <c r="G23" t="n">
-        <v>2955</v>
+        <v>2992.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>2953</v>
       </c>
       <c r="C24" t="n">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="D24" t="n">
         <v>2953</v>
       </c>
       <c r="E24" t="n">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="F24" t="n">
-        <v>519.1712</v>
+        <v>126.4109</v>
       </c>
       <c r="G24" t="n">
-        <v>2953.333333333333</v>
+        <v>2991.116666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="C25" t="n">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="D25" t="n">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="E25" t="n">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="F25" t="n">
-        <v>594.1898</v>
+        <v>519.1712</v>
       </c>
       <c r="G25" t="n">
-        <v>2951.666666666667</v>
+        <v>2989.366666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="C26" t="n">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="D26" t="n">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="E26" t="n">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="F26" t="n">
-        <v>354.5219</v>
+        <v>594.1898</v>
       </c>
       <c r="G26" t="n">
-        <v>2950.333333333333</v>
+        <v>2987.75</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="C27" t="n">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="D27" t="n">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="E27" t="n">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="F27" t="n">
-        <v>260.9796</v>
+        <v>354.5219</v>
       </c>
       <c r="G27" t="n">
-        <v>2949</v>
+        <v>2986.116666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>2948</v>
       </c>
       <c r="F28" t="n">
-        <v>22</v>
+        <v>260.9796</v>
       </c>
       <c r="G28" t="n">
-        <v>2948.333333333333</v>
+        <v>2984.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="C29" t="n">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="D29" t="n">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="E29" t="n">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>2947.666666666667</v>
+        <v>2982.95</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="C30" t="n">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="D30" t="n">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="E30" t="n">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>2947</v>
+        <v>2981.383333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="C31" t="n">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="D31" t="n">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="E31" t="n">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="F31" t="n">
-        <v>124.8663</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>2946</v>
+        <v>2979.783333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,28 +1486,32 @@
         <v>2945</v>
       </c>
       <c r="C32" t="n">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="D32" t="n">
         <v>2945</v>
       </c>
       <c r="E32" t="n">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="F32" t="n">
-        <v>898.0008</v>
+        <v>124.8663</v>
       </c>
       <c r="G32" t="n">
-        <v>2945</v>
+        <v>2978.416666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2946</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2946</v>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
@@ -1518,22 +1522,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="C33" t="n">
         <v>2944</v>
       </c>
       <c r="D33" t="n">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="E33" t="n">
         <v>2944</v>
       </c>
       <c r="F33" t="n">
-        <v>1357.5326</v>
+        <v>898.0008</v>
       </c>
       <c r="G33" t="n">
-        <v>2944.333333333333</v>
+        <v>2977.15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>2946</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1556,29 +1566,37 @@
         <v>2944</v>
       </c>
       <c r="C34" t="n">
-        <v>2924</v>
+        <v>2944</v>
       </c>
       <c r="D34" t="n">
         <v>2944</v>
       </c>
       <c r="E34" t="n">
-        <v>2924</v>
+        <v>2944</v>
       </c>
       <c r="F34" t="n">
-        <v>221.6225</v>
+        <v>1357.5326</v>
       </c>
       <c r="G34" t="n">
-        <v>2937.333333333333</v>
+        <v>2975.916666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2944</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2946</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1606,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2926</v>
+        <v>2944</v>
       </c>
       <c r="C35" t="n">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="D35" t="n">
-        <v>2926</v>
+        <v>2944</v>
       </c>
       <c r="E35" t="n">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="F35" t="n">
-        <v>48.7746</v>
+        <v>221.6225</v>
       </c>
       <c r="G35" t="n">
-        <v>2931.333333333333</v>
+        <v>2974.416666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1630,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>2946</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,32 +1647,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="C36" t="n">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="D36" t="n">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="E36" t="n">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="F36" t="n">
-        <v>885.0014</v>
+        <v>48.7746</v>
       </c>
       <c r="G36" t="n">
-        <v>2926</v>
+        <v>2973.083333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2924</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2946</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,32 +1690,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2942</v>
+        <v>2928</v>
       </c>
       <c r="C37" t="n">
-        <v>2942</v>
+        <v>2928</v>
       </c>
       <c r="D37" t="n">
-        <v>2942</v>
+        <v>2928</v>
       </c>
       <c r="E37" t="n">
-        <v>2942</v>
+        <v>2928</v>
       </c>
       <c r="F37" t="n">
-        <v>180.1862</v>
+        <v>885.0014</v>
       </c>
       <c r="G37" t="n">
-        <v>2932</v>
+        <v>2971.816666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2946</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1696,19 +1736,19 @@
         <v>2942</v>
       </c>
       <c r="C38" t="n">
-        <v>2955</v>
+        <v>2942</v>
       </c>
       <c r="D38" t="n">
-        <v>2955</v>
+        <v>2942</v>
       </c>
       <c r="E38" t="n">
         <v>2942</v>
       </c>
       <c r="F38" t="n">
-        <v>1320.5333</v>
+        <v>180.1862</v>
       </c>
       <c r="G38" t="n">
-        <v>2941.666666666667</v>
+        <v>2970.55</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1717,12 +1757,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2942</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>2928</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2946</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -1734,7 +1776,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2955</v>
+        <v>2942</v>
       </c>
       <c r="C39" t="n">
         <v>2955</v>
@@ -1743,13 +1785,13 @@
         <v>2955</v>
       </c>
       <c r="E39" t="n">
-        <v>2955</v>
+        <v>2942</v>
       </c>
       <c r="F39" t="n">
-        <v>75.8077</v>
+        <v>1320.5333</v>
       </c>
       <c r="G39" t="n">
-        <v>2950.666666666667</v>
+        <v>2969.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1758,7 +1800,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>2946</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1773,22 +1817,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2940</v>
+        <v>2955</v>
       </c>
       <c r="C40" t="n">
-        <v>2940</v>
+        <v>2955</v>
       </c>
       <c r="D40" t="n">
-        <v>2940</v>
+        <v>2955</v>
       </c>
       <c r="E40" t="n">
-        <v>2940</v>
+        <v>2955</v>
       </c>
       <c r="F40" t="n">
-        <v>127.2161</v>
+        <v>75.8077</v>
       </c>
       <c r="G40" t="n">
-        <v>2950</v>
+        <v>2968.916666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1797,7 +1841,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>2946</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1812,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2956</v>
+        <v>2940</v>
       </c>
       <c r="C41" t="n">
-        <v>2956</v>
+        <v>2940</v>
       </c>
       <c r="D41" t="n">
-        <v>2956</v>
+        <v>2940</v>
       </c>
       <c r="E41" t="n">
-        <v>2956</v>
+        <v>2940</v>
       </c>
       <c r="F41" t="n">
-        <v>129.9999</v>
+        <v>127.2161</v>
       </c>
       <c r="G41" t="n">
-        <v>2950.333333333333</v>
+        <v>2967.916666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,7 +1882,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>2946</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1851,22 +1899,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2965</v>
+        <v>2956</v>
       </c>
       <c r="C42" t="n">
-        <v>2971</v>
+        <v>2956</v>
       </c>
       <c r="D42" t="n">
-        <v>2971</v>
+        <v>2956</v>
       </c>
       <c r="E42" t="n">
-        <v>2965</v>
+        <v>2956</v>
       </c>
       <c r="F42" t="n">
-        <v>820.0174</v>
+        <v>129.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>2955.666666666667</v>
+        <v>2967.033333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1875,7 +1923,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>2946</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1890,22 +1940,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2975</v>
+        <v>2965</v>
       </c>
       <c r="C43" t="n">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="D43" t="n">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="E43" t="n">
-        <v>2975</v>
+        <v>2965</v>
       </c>
       <c r="F43" t="n">
-        <v>942</v>
+        <v>820.0174</v>
       </c>
       <c r="G43" t="n">
-        <v>2967.333333333333</v>
+        <v>2966.433333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1914,7 +1964,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2946</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1929,22 +1981,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="C44" t="n">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="D44" t="n">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="E44" t="n">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>942</v>
       </c>
       <c r="G44" t="n">
-        <v>2973.333333333333</v>
+        <v>2966.066666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1953,7 +2005,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>2946</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1968,22 +2022,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2958</v>
+        <v>2974</v>
       </c>
       <c r="C45" t="n">
-        <v>2958</v>
+        <v>2974</v>
       </c>
       <c r="D45" t="n">
-        <v>2958</v>
+        <v>2974</v>
       </c>
       <c r="E45" t="n">
-        <v>2958</v>
+        <v>2974</v>
       </c>
       <c r="F45" t="n">
-        <v>119.6967</v>
+        <v>20</v>
       </c>
       <c r="G45" t="n">
-        <v>2969</v>
+        <v>2965.716666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1992,7 +2046,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>2946</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2007,22 +2063,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="C46" t="n">
-        <v>2975</v>
+        <v>2958</v>
       </c>
       <c r="D46" t="n">
-        <v>2975</v>
+        <v>2958</v>
       </c>
       <c r="E46" t="n">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="F46" t="n">
-        <v>157.8766386554622</v>
+        <v>119.6967</v>
       </c>
       <c r="G46" t="n">
-        <v>2969</v>
+        <v>2965.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2031,7 +2087,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>2946</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2046,22 +2104,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>2961</v>
+      </c>
+      <c r="C47" t="n">
         <v>2975</v>
       </c>
-      <c r="C47" t="n">
-        <v>2978</v>
-      </c>
       <c r="D47" t="n">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="E47" t="n">
-        <v>2975</v>
+        <v>2961</v>
       </c>
       <c r="F47" t="n">
-        <v>912.9642613445378</v>
+        <v>157.8766386554622</v>
       </c>
       <c r="G47" t="n">
-        <v>2970.333333333333</v>
+        <v>2964.85</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2070,7 +2128,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>2946</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2085,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="C48" t="n">
         <v>2978</v>
@@ -2094,13 +2154,13 @@
         <v>2978</v>
       </c>
       <c r="E48" t="n">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="F48" t="n">
-        <v>16.5712</v>
+        <v>912.9642613445378</v>
       </c>
       <c r="G48" t="n">
-        <v>2977</v>
+        <v>2964.683333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2109,7 +2169,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>2946</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2136,10 +2198,10 @@
         <v>2978</v>
       </c>
       <c r="F49" t="n">
-        <v>3.0663</v>
+        <v>16.5712</v>
       </c>
       <c r="G49" t="n">
-        <v>2978</v>
+        <v>2964.25</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2148,7 +2210,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>2946</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2163,22 +2227,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2995</v>
+        <v>2978</v>
       </c>
       <c r="C50" t="n">
-        <v>2995</v>
+        <v>2978</v>
       </c>
       <c r="D50" t="n">
-        <v>2995</v>
+        <v>2978</v>
       </c>
       <c r="E50" t="n">
-        <v>2995</v>
+        <v>2978</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>3.0663</v>
       </c>
       <c r="G50" t="n">
-        <v>2983.666666666667</v>
+        <v>2964</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2187,7 +2251,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>2946</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2214,10 +2280,10 @@
         <v>2995</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G51" t="n">
-        <v>2989.333333333333</v>
+        <v>2964.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,7 +2292,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>2946</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2241,38 +2309,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2980</v>
+        <v>2995</v>
       </c>
       <c r="C52" t="n">
-        <v>2975</v>
+        <v>2995</v>
       </c>
       <c r="D52" t="n">
-        <v>2980</v>
+        <v>2995</v>
       </c>
       <c r="E52" t="n">
-        <v>2975</v>
+        <v>2995</v>
       </c>
       <c r="F52" t="n">
-        <v>1475</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>2988.333333333333</v>
+        <v>2964.133333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>2946</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>1.01163272233537</v>
       </c>
     </row>
     <row r="53">
@@ -2280,36 +2350,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2975</v>
+        <v>2980</v>
       </c>
       <c r="C53" t="n">
         <v>2975</v>
       </c>
       <c r="D53" t="n">
-        <v>2975</v>
+        <v>2980</v>
       </c>
       <c r="E53" t="n">
         <v>2975</v>
       </c>
       <c r="F53" t="n">
-        <v>1002.9077</v>
+        <v>1475</v>
       </c>
       <c r="G53" t="n">
-        <v>2981.666666666667</v>
+        <v>2963.916666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2319,36 +2385,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2992</v>
+        <v>2975</v>
       </c>
       <c r="C54" t="n">
-        <v>2984</v>
+        <v>2975</v>
       </c>
       <c r="D54" t="n">
-        <v>2993</v>
+        <v>2975</v>
       </c>
       <c r="E54" t="n">
-        <v>2984</v>
+        <v>2975</v>
       </c>
       <c r="F54" t="n">
-        <v>3314.195</v>
+        <v>1002.9077</v>
       </c>
       <c r="G54" t="n">
-        <v>2978</v>
+        <v>2963.666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2420,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2980</v>
+        <v>2992</v>
       </c>
       <c r="C55" t="n">
-        <v>2960</v>
+        <v>2984</v>
       </c>
       <c r="D55" t="n">
-        <v>2980</v>
+        <v>2993</v>
       </c>
       <c r="E55" t="n">
-        <v>2960</v>
+        <v>2984</v>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>3314.195</v>
       </c>
       <c r="G55" t="n">
-        <v>2973</v>
+        <v>2963.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2383,11 +2445,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2397,22 +2455,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2974</v>
+        <v>2980</v>
       </c>
       <c r="C56" t="n">
-        <v>2974</v>
+        <v>2960</v>
       </c>
       <c r="D56" t="n">
-        <v>2974</v>
+        <v>2980</v>
       </c>
       <c r="E56" t="n">
-        <v>2974</v>
+        <v>2960</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="n">
-        <v>2972.666666666667</v>
+        <v>2963.15</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2422,11 +2480,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2436,22 +2490,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2981</v>
+        <v>2974</v>
       </c>
       <c r="C57" t="n">
-        <v>2981</v>
+        <v>2974</v>
       </c>
       <c r="D57" t="n">
-        <v>2981</v>
+        <v>2974</v>
       </c>
       <c r="E57" t="n">
-        <v>2981</v>
+        <v>2974</v>
       </c>
       <c r="F57" t="n">
-        <v>143.1966</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>2971.666666666667</v>
+        <v>2962.833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2461,11 +2515,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2481,16 +2531,16 @@
         <v>2981</v>
       </c>
       <c r="D58" t="n">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="E58" t="n">
         <v>2981</v>
       </c>
       <c r="F58" t="n">
-        <v>3465.8652</v>
+        <v>143.1966</v>
       </c>
       <c r="G58" t="n">
-        <v>2978.666666666667</v>
+        <v>2962.733333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2500,11 +2550,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2520,16 +2566,16 @@
         <v>2981</v>
       </c>
       <c r="D59" t="n">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="E59" t="n">
         <v>2981</v>
       </c>
       <c r="F59" t="n">
-        <v>483.9993</v>
+        <v>3465.8652</v>
       </c>
       <c r="G59" t="n">
-        <v>2981</v>
+        <v>2962.533333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2539,11 +2585,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2553,22 +2595,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2977</v>
+        <v>2981</v>
       </c>
       <c r="C60" t="n">
-        <v>2969</v>
+        <v>2981</v>
       </c>
       <c r="D60" t="n">
-        <v>2977</v>
+        <v>2981</v>
       </c>
       <c r="E60" t="n">
-        <v>2969</v>
+        <v>2981</v>
       </c>
       <c r="F60" t="n">
-        <v>5144.4945</v>
+        <v>483.9993</v>
       </c>
       <c r="G60" t="n">
-        <v>2977</v>
+        <v>2962.333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2578,11 +2620,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2592,22 +2630,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="C61" t="n">
-        <v>2979</v>
+        <v>2969</v>
       </c>
       <c r="D61" t="n">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="E61" t="n">
-        <v>2979</v>
+        <v>2969</v>
       </c>
       <c r="F61" t="n">
-        <v>513.6271</v>
+        <v>5144.4945</v>
       </c>
       <c r="G61" t="n">
-        <v>2976.333333333333</v>
+        <v>2961.933333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2617,11 +2655,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2631,36 +2665,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2994</v>
+        <v>2979</v>
       </c>
       <c r="C62" t="n">
-        <v>2994</v>
+        <v>2979</v>
       </c>
       <c r="D62" t="n">
-        <v>2994</v>
+        <v>2979</v>
       </c>
       <c r="E62" t="n">
-        <v>2994</v>
+        <v>2979</v>
       </c>
       <c r="F62" t="n">
-        <v>32.1974</v>
+        <v>513.6271</v>
       </c>
       <c r="G62" t="n">
-        <v>2980.666666666667</v>
+        <v>2961.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2700,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="C63" t="n">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="D63" t="n">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="E63" t="n">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="F63" t="n">
-        <v>116.5962</v>
+        <v>32.1974</v>
       </c>
       <c r="G63" t="n">
-        <v>2989.666666666667</v>
+        <v>2961.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2695,11 +2725,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2709,22 +2735,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2985</v>
+        <v>2996</v>
       </c>
       <c r="C64" t="n">
-        <v>2985</v>
+        <v>2996</v>
       </c>
       <c r="D64" t="n">
-        <v>2985</v>
+        <v>2996</v>
       </c>
       <c r="E64" t="n">
-        <v>2985</v>
+        <v>2996</v>
       </c>
       <c r="F64" t="n">
-        <v>500.5068</v>
+        <v>116.5962</v>
       </c>
       <c r="G64" t="n">
-        <v>2991.666666666667</v>
+        <v>2962.016666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2734,11 +2760,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2748,22 +2770,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2990</v>
+        <v>2985</v>
       </c>
       <c r="C65" t="n">
-        <v>2990</v>
+        <v>2985</v>
       </c>
       <c r="D65" t="n">
-        <v>2990</v>
+        <v>2985</v>
       </c>
       <c r="E65" t="n">
-        <v>2990</v>
+        <v>2985</v>
       </c>
       <c r="F65" t="n">
-        <v>1.000334448160535</v>
+        <v>500.5068</v>
       </c>
       <c r="G65" t="n">
-        <v>2990.333333333333</v>
+        <v>2962.133333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2773,11 +2795,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2790,19 +2808,19 @@
         <v>2990</v>
       </c>
       <c r="C66" t="n">
-        <v>2981</v>
+        <v>2990</v>
       </c>
       <c r="D66" t="n">
         <v>2990</v>
       </c>
       <c r="E66" t="n">
-        <v>2981</v>
+        <v>2990</v>
       </c>
       <c r="F66" t="n">
-        <v>203.6</v>
+        <v>1.000334448160535</v>
       </c>
       <c r="G66" t="n">
-        <v>2985.333333333333</v>
+        <v>2962.333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2812,11 +2830,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2826,22 +2840,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>2990</v>
+      </c>
+      <c r="C67" t="n">
         <v>2981</v>
       </c>
-      <c r="C67" t="n">
-        <v>2987</v>
-      </c>
       <c r="D67" t="n">
-        <v>2987</v>
+        <v>2990</v>
       </c>
       <c r="E67" t="n">
         <v>2981</v>
       </c>
       <c r="F67" t="n">
-        <v>432</v>
+        <v>203.6</v>
       </c>
       <c r="G67" t="n">
-        <v>2986</v>
+        <v>2962.516666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2851,11 +2865,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2865,22 +2875,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>2981</v>
+      </c>
+      <c r="C68" t="n">
         <v>2987</v>
       </c>
-      <c r="C68" t="n">
-        <v>2988</v>
-      </c>
       <c r="D68" t="n">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="E68" t="n">
-        <v>2987</v>
+        <v>2981</v>
       </c>
       <c r="F68" t="n">
-        <v>12.99973641231593</v>
+        <v>432</v>
       </c>
       <c r="G68" t="n">
-        <v>2985.333333333333</v>
+        <v>2962.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2890,11 +2900,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2904,22 +2910,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="C69" t="n">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="D69" t="n">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="E69" t="n">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>12.99973641231593</v>
       </c>
       <c r="G69" t="n">
-        <v>2988.333333333333</v>
+        <v>2963.133333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2929,11 +2935,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2946,19 +2948,19 @@
         <v>2990</v>
       </c>
       <c r="C70" t="n">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="D70" t="n">
         <v>2990</v>
       </c>
       <c r="E70" t="n">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="F70" t="n">
-        <v>695.0127</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>2989</v>
+        <v>2963.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2968,11 +2970,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2982,22 +2980,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="C71" t="n">
         <v>2989</v>
       </c>
       <c r="D71" t="n">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="E71" t="n">
         <v>2989</v>
       </c>
       <c r="F71" t="n">
-        <v>598.1564</v>
+        <v>695.0127</v>
       </c>
       <c r="G71" t="n">
-        <v>2989.333333333333</v>
+        <v>2963.966666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3007,11 +3005,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3033,10 +3027,10 @@
         <v>2989</v>
       </c>
       <c r="F72" t="n">
-        <v>119.2955</v>
+        <v>598.1564</v>
       </c>
       <c r="G72" t="n">
-        <v>2989</v>
+        <v>2964.55</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3046,11 +3040,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3072,10 +3062,10 @@
         <v>2989</v>
       </c>
       <c r="F73" t="n">
-        <v>150</v>
+        <v>119.2955</v>
       </c>
       <c r="G73" t="n">
-        <v>2989</v>
+        <v>2965.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3085,11 +3075,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3102,19 +3088,19 @@
         <v>2989</v>
       </c>
       <c r="C74" t="n">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="D74" t="n">
         <v>2989</v>
       </c>
       <c r="E74" t="n">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="F74" t="n">
-        <v>1674.2373</v>
+        <v>150</v>
       </c>
       <c r="G74" t="n">
-        <v>2988.666666666667</v>
+        <v>2965.883333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3124,11 +3110,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3120,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>2989</v>
+      </c>
+      <c r="C75" t="n">
         <v>2988</v>
       </c>
-      <c r="C75" t="n">
-        <v>2982</v>
-      </c>
       <c r="D75" t="n">
+        <v>2989</v>
+      </c>
+      <c r="E75" t="n">
         <v>2988</v>
       </c>
-      <c r="E75" t="n">
-        <v>2982</v>
-      </c>
       <c r="F75" t="n">
-        <v>81.3466</v>
+        <v>1674.2373</v>
       </c>
       <c r="G75" t="n">
-        <v>2986.333333333333</v>
+        <v>2966.466666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3163,11 +3145,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3177,22 +3155,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2985</v>
+        <v>2988</v>
       </c>
       <c r="C76" t="n">
-        <v>2989</v>
+        <v>2982</v>
       </c>
       <c r="D76" t="n">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="E76" t="n">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="F76" t="n">
-        <v>1338.7675</v>
+        <v>81.3466</v>
       </c>
       <c r="G76" t="n">
-        <v>2986.333333333333</v>
+        <v>2966.85</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3202,11 +3180,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3216,7 +3190,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="C77" t="n">
         <v>2989</v>
@@ -3225,13 +3199,13 @@
         <v>2989</v>
       </c>
       <c r="E77" t="n">
-        <v>2989</v>
+        <v>2981</v>
       </c>
       <c r="F77" t="n">
-        <v>13.0107</v>
+        <v>1338.7675</v>
       </c>
       <c r="G77" t="n">
-        <v>2986.666666666667</v>
+        <v>2967.266666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3241,11 +3215,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3267,10 +3237,10 @@
         <v>2989</v>
       </c>
       <c r="F78" t="n">
-        <v>1600</v>
+        <v>13.0107</v>
       </c>
       <c r="G78" t="n">
-        <v>2989</v>
+        <v>2967.866666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3280,11 +3250,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3294,22 +3260,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2981</v>
+        <v>2989</v>
       </c>
       <c r="C79" t="n">
-        <v>2981</v>
+        <v>2989</v>
       </c>
       <c r="D79" t="n">
-        <v>2981</v>
+        <v>2989</v>
       </c>
       <c r="E79" t="n">
-        <v>2981</v>
+        <v>2989</v>
       </c>
       <c r="F79" t="n">
-        <v>175.5331</v>
+        <v>1600</v>
       </c>
       <c r="G79" t="n">
-        <v>2986.333333333333</v>
+        <v>2968.466666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3319,11 +3285,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3333,22 +3295,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2988</v>
+        <v>2981</v>
       </c>
       <c r="C80" t="n">
         <v>2981</v>
       </c>
       <c r="D80" t="n">
-        <v>2988</v>
+        <v>2981</v>
       </c>
       <c r="E80" t="n">
         <v>2981</v>
       </c>
       <c r="F80" t="n">
-        <v>113.0266</v>
+        <v>175.5331</v>
       </c>
       <c r="G80" t="n">
-        <v>2983.666666666667</v>
+        <v>2968.933333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3358,11 +3320,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3372,22 +3330,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>2988</v>
+      </c>
+      <c r="C81" t="n">
         <v>2981</v>
       </c>
-      <c r="C81" t="n">
-        <v>2980</v>
-      </c>
       <c r="D81" t="n">
+        <v>2988</v>
+      </c>
+      <c r="E81" t="n">
         <v>2981</v>
       </c>
-      <c r="E81" t="n">
-        <v>2980</v>
-      </c>
       <c r="F81" t="n">
-        <v>1295.2489</v>
+        <v>113.0266</v>
       </c>
       <c r="G81" t="n">
-        <v>2980.666666666667</v>
+        <v>2969.433333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3397,11 +3355,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3411,22 +3365,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="C82" t="n">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="D82" t="n">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="E82" t="n">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="F82" t="n">
-        <v>231.5217</v>
+        <v>1295.2489</v>
       </c>
       <c r="G82" t="n">
-        <v>2981</v>
+        <v>2969.816666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3436,11 +3390,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3453,19 +3403,19 @@
         <v>2982</v>
       </c>
       <c r="C83" t="n">
-        <v>2980</v>
+        <v>2982</v>
       </c>
       <c r="D83" t="n">
         <v>2982</v>
       </c>
       <c r="E83" t="n">
-        <v>2980</v>
+        <v>2982</v>
       </c>
       <c r="F83" t="n">
-        <v>323.0493</v>
+        <v>231.5217</v>
       </c>
       <c r="G83" t="n">
-        <v>2980.666666666667</v>
+        <v>2970.266666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3475,11 +3425,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3489,22 +3435,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C84" t="n">
-        <v>2985</v>
+        <v>2980</v>
       </c>
       <c r="D84" t="n">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="E84" t="n">
-        <v>2985</v>
+        <v>2980</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>323.0493</v>
       </c>
       <c r="G84" t="n">
-        <v>2982.333333333333</v>
+        <v>2970.716666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3514,11 +3460,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3528,22 +3470,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2980</v>
+        <v>2985</v>
       </c>
       <c r="C85" t="n">
-        <v>2979</v>
+        <v>2985</v>
       </c>
       <c r="D85" t="n">
-        <v>2980</v>
+        <v>2985</v>
       </c>
       <c r="E85" t="n">
-        <v>2979</v>
+        <v>2985</v>
       </c>
       <c r="F85" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>2981.333333333333</v>
+        <v>2971.266666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3553,11 +3495,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3567,22 +3505,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>2980</v>
+      </c>
+      <c r="C86" t="n">
         <v>2979</v>
       </c>
-      <c r="C86" t="n">
-        <v>2978</v>
-      </c>
       <c r="D86" t="n">
+        <v>2980</v>
+      </c>
+      <c r="E86" t="n">
         <v>2979</v>
       </c>
-      <c r="E86" t="n">
-        <v>2978</v>
-      </c>
       <c r="F86" t="n">
-        <v>7.3298</v>
+        <v>121</v>
       </c>
       <c r="G86" t="n">
-        <v>2980.666666666667</v>
+        <v>2971.75</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3592,11 +3530,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3606,22 +3540,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="C87" t="n">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="D87" t="n">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="E87" t="n">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>7.3298</v>
       </c>
       <c r="G87" t="n">
-        <v>2977.666666666667</v>
+        <v>2972.233333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3631,11 +3565,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3645,22 +3575,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="C88" t="n">
-        <v>2961</v>
+        <v>2976</v>
       </c>
       <c r="D88" t="n">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="E88" t="n">
-        <v>2961</v>
+        <v>2976</v>
       </c>
       <c r="F88" t="n">
-        <v>2255</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>2971.666666666667</v>
+        <v>2972.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3670,11 +3600,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3684,22 +3610,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2963</v>
+        <v>2975</v>
       </c>
       <c r="C89" t="n">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="D89" t="n">
-        <v>2963</v>
+        <v>2975</v>
       </c>
       <c r="E89" t="n">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="F89" t="n">
-        <v>257.67</v>
+        <v>2255</v>
       </c>
       <c r="G89" t="n">
-        <v>2966.666666666667</v>
+        <v>2972.916666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3709,11 +3635,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3645,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2976</v>
+        <v>2963</v>
       </c>
       <c r="C90" t="n">
-        <v>2975</v>
+        <v>2963</v>
       </c>
       <c r="D90" t="n">
-        <v>2976</v>
+        <v>2963</v>
       </c>
       <c r="E90" t="n">
-        <v>2975</v>
+        <v>2963</v>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>257.67</v>
       </c>
       <c r="G90" t="n">
-        <v>2966.333333333333</v>
+        <v>2973.183333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3748,11 +3670,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3765,19 +3683,19 @@
         <v>2976</v>
       </c>
       <c r="C91" t="n">
-        <v>2988</v>
+        <v>2975</v>
       </c>
       <c r="D91" t="n">
-        <v>2988</v>
+        <v>2976</v>
       </c>
       <c r="E91" t="n">
         <v>2975</v>
       </c>
       <c r="F91" t="n">
-        <v>485.9681</v>
+        <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>2975.333333333333</v>
+        <v>2973.666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3787,11 +3705,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3801,22 +3715,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2987</v>
+        <v>2976</v>
       </c>
       <c r="C92" t="n">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="D92" t="n">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="E92" t="n">
-        <v>2987</v>
+        <v>2975</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>485.9681</v>
       </c>
       <c r="G92" t="n">
-        <v>2983.333333333333</v>
+        <v>2974.383333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3826,11 +3740,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3852,10 +3762,10 @@
         <v>2987</v>
       </c>
       <c r="F93" t="n">
-        <v>189.5443</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>2987.333333333333</v>
+        <v>2975.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3865,11 +3775,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3879,22 +3785,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="C94" t="n">
-        <v>2993</v>
+        <v>2987</v>
       </c>
       <c r="D94" t="n">
-        <v>2993</v>
+        <v>2987</v>
       </c>
       <c r="E94" t="n">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="F94" t="n">
-        <v>1043.316376812563</v>
+        <v>189.5443</v>
       </c>
       <c r="G94" t="n">
-        <v>2989</v>
+        <v>2975.816666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3904,11 +3810,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3918,7 +3820,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="C95" t="n">
         <v>2993</v>
@@ -3927,13 +3829,13 @@
         <v>2993</v>
       </c>
       <c r="E95" t="n">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="F95" t="n">
-        <v>23.1858</v>
+        <v>1043.316376812563</v>
       </c>
       <c r="G95" t="n">
-        <v>2991</v>
+        <v>2976.966666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3943,11 +3845,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3957,22 +3855,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="C96" t="n">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="D96" t="n">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="E96" t="n">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="F96" t="n">
-        <v>33.42245989304813</v>
+        <v>23.1858</v>
       </c>
       <c r="G96" t="n">
-        <v>2992.666666666667</v>
+        <v>2978.083333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3982,11 +3880,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3996,22 +3890,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2979</v>
+        <v>2992</v>
       </c>
       <c r="C97" t="n">
-        <v>2979</v>
+        <v>2992</v>
       </c>
       <c r="D97" t="n">
-        <v>2979</v>
+        <v>2992</v>
       </c>
       <c r="E97" t="n">
-        <v>2979</v>
+        <v>2992</v>
       </c>
       <c r="F97" t="n">
-        <v>97.4902</v>
+        <v>33.42245989304813</v>
       </c>
       <c r="G97" t="n">
-        <v>2988</v>
+        <v>2979.15</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4021,11 +3915,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4035,22 +3925,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="C98" t="n">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="D98" t="n">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="E98" t="n">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="F98" t="n">
-        <v>66</v>
+        <v>97.4902</v>
       </c>
       <c r="G98" t="n">
-        <v>2982.666666666667</v>
+        <v>2979.766666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4060,11 +3950,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +3960,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2992</v>
+        <v>2977</v>
       </c>
       <c r="C99" t="n">
-        <v>2992</v>
+        <v>2977</v>
       </c>
       <c r="D99" t="n">
-        <v>2992</v>
+        <v>2977</v>
       </c>
       <c r="E99" t="n">
-        <v>2992</v>
+        <v>2977</v>
       </c>
       <c r="F99" t="n">
         <v>66</v>
       </c>
       <c r="G99" t="n">
-        <v>2982.666666666667</v>
+        <v>2980.133333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4099,11 +3985,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4125,10 +4007,10 @@
         <v>2992</v>
       </c>
       <c r="F100" t="n">
-        <v>41.084</v>
+        <v>66</v>
       </c>
       <c r="G100" t="n">
-        <v>2987</v>
+        <v>2980.75</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4138,11 +4020,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4152,22 +4030,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2998</v>
+        <v>2992</v>
       </c>
       <c r="C101" t="n">
-        <v>3000</v>
+        <v>2992</v>
       </c>
       <c r="D101" t="n">
-        <v>3000</v>
+        <v>2992</v>
       </c>
       <c r="E101" t="n">
-        <v>2998</v>
+        <v>2992</v>
       </c>
       <c r="F101" t="n">
-        <v>179.4586333333333</v>
+        <v>41.084</v>
       </c>
       <c r="G101" t="n">
-        <v>2994.666666666667</v>
+        <v>2981.616666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4177,11 +4055,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4191,7 +4065,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="C102" t="n">
         <v>3000</v>
@@ -4200,13 +4074,13 @@
         <v>3000</v>
       </c>
       <c r="E102" t="n">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="F102" t="n">
-        <v>159.7392666666667</v>
+        <v>179.4586333333333</v>
       </c>
       <c r="G102" t="n">
-        <v>2997.333333333333</v>
+        <v>2982.35</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4216,11 +4090,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4242,10 +4112,10 @@
         <v>3000</v>
       </c>
       <c r="F103" t="n">
-        <v>990.1725</v>
+        <v>159.7392666666667</v>
       </c>
       <c r="G103" t="n">
-        <v>3000</v>
+        <v>2982.833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4255,11 +4125,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4269,22 +4135,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C104" t="n">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="D104" t="n">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="E104" t="n">
         <v>3000</v>
       </c>
       <c r="F104" t="n">
-        <v>51.4649</v>
+        <v>990.1725</v>
       </c>
       <c r="G104" t="n">
-        <v>3001</v>
+        <v>2983.25</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4294,11 +4160,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4317,13 +4179,13 @@
         <v>3003</v>
       </c>
       <c r="E105" t="n">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="F105" t="n">
-        <v>7.5236</v>
+        <v>51.4649</v>
       </c>
       <c r="G105" t="n">
-        <v>3002</v>
+        <v>2983.733333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4333,11 +4195,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4359,10 +4217,10 @@
         <v>3003</v>
       </c>
       <c r="F106" t="n">
-        <v>29.0294</v>
+        <v>7.5236</v>
       </c>
       <c r="G106" t="n">
-        <v>3003</v>
+        <v>2984.483333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4372,11 +4230,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4386,22 +4240,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C107" t="n">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D107" t="n">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="E107" t="n">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="F107" t="n">
-        <v>182.993</v>
+        <v>29.0294</v>
       </c>
       <c r="G107" t="n">
-        <v>3003.333333333333</v>
+        <v>2984.95</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4411,11 +4265,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4437,10 +4287,10 @@
         <v>3004</v>
       </c>
       <c r="F108" t="n">
-        <v>67.00700000000001</v>
+        <v>182.993</v>
       </c>
       <c r="G108" t="n">
-        <v>3003.666666666667</v>
+        <v>2985.383333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4450,11 +4300,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4464,22 +4310,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="C109" t="n">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="D109" t="n">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="E109" t="n">
         <v>3004</v>
       </c>
       <c r="F109" t="n">
-        <v>499.1127568106313</v>
+        <v>67.00700000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>3006</v>
+        <v>2985.816666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4489,11 +4335,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4503,22 +4345,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C110" t="n">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="D110" t="n">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="E110" t="n">
-        <v>3009</v>
+        <v>3004</v>
       </c>
       <c r="F110" t="n">
-        <v>1010.6477</v>
+        <v>499.1127568106313</v>
       </c>
       <c r="G110" t="n">
-        <v>3007.666666666667</v>
+        <v>2986.35</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4528,11 +4370,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4554,10 +4392,10 @@
         <v>3009</v>
       </c>
       <c r="F111" t="n">
-        <v>15.2049</v>
+        <v>1010.6477</v>
       </c>
       <c r="G111" t="n">
-        <v>3009.333333333333</v>
+        <v>2986.583333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4567,11 +4405,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4581,22 +4415,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="C112" t="n">
-        <v>3018</v>
+        <v>3009</v>
       </c>
       <c r="D112" t="n">
-        <v>3018</v>
+        <v>3009</v>
       </c>
       <c r="E112" t="n">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="F112" t="n">
-        <v>411.5192</v>
+        <v>15.2049</v>
       </c>
       <c r="G112" t="n">
-        <v>3012</v>
+        <v>2986.816666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4606,11 +4440,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4620,22 +4450,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3027</v>
+        <v>3013</v>
       </c>
       <c r="C113" t="n">
-        <v>3027</v>
+        <v>3018</v>
       </c>
       <c r="D113" t="n">
-        <v>3027</v>
+        <v>3018</v>
       </c>
       <c r="E113" t="n">
-        <v>3027</v>
+        <v>3013</v>
       </c>
       <c r="F113" t="n">
-        <v>500</v>
+        <v>411.5192</v>
       </c>
       <c r="G113" t="n">
-        <v>3018</v>
+        <v>2987.533333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4645,11 +4475,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4659,22 +4485,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3008</v>
+        <v>3027</v>
       </c>
       <c r="C114" t="n">
-        <v>3008</v>
+        <v>3027</v>
       </c>
       <c r="D114" t="n">
-        <v>3008</v>
+        <v>3027</v>
       </c>
       <c r="E114" t="n">
-        <v>3008</v>
+        <v>3027</v>
       </c>
       <c r="F114" t="n">
-        <v>48.3838</v>
+        <v>500</v>
       </c>
       <c r="G114" t="n">
-        <v>3017.666666666667</v>
+        <v>2988.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4684,11 +4510,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4698,59 +4520,57 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="C115" t="n">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="D115" t="n">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="E115" t="n">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="F115" t="n">
-        <v>338</v>
+        <v>48.3838</v>
       </c>
       <c r="G115" t="n">
-        <v>3015.333333333333</v>
+        <v>2988.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3018</v>
+        <v>3011</v>
       </c>
       <c r="C116" t="n">
-        <v>3019</v>
+        <v>3011</v>
       </c>
       <c r="D116" t="n">
-        <v>3019</v>
+        <v>3011</v>
       </c>
       <c r="E116" t="n">
-        <v>3018</v>
+        <v>3011</v>
       </c>
       <c r="F116" t="n">
-        <v>1132.1464</v>
+        <v>338</v>
       </c>
       <c r="G116" t="n">
-        <v>3012.666666666667</v>
+        <v>2989.65</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4770,7 +4590,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C117" t="n">
         <v>3019</v>
@@ -4779,13 +4599,13 @@
         <v>3019</v>
       </c>
       <c r="E117" t="n">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="F117" t="n">
-        <v>1508.1411</v>
+        <v>1132.1464</v>
       </c>
       <c r="G117" t="n">
-        <v>3016.333333333333</v>
+        <v>2990.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4805,22 +4625,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3033</v>
+        <v>3019</v>
       </c>
       <c r="C118" t="n">
-        <v>3033</v>
+        <v>3019</v>
       </c>
       <c r="D118" t="n">
-        <v>3033</v>
+        <v>3019</v>
       </c>
       <c r="E118" t="n">
-        <v>3033</v>
+        <v>3019</v>
       </c>
       <c r="F118" t="n">
-        <v>71</v>
+        <v>1508.1411</v>
       </c>
       <c r="G118" t="n">
-        <v>3023.666666666667</v>
+        <v>2991.033333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4852,10 +4672,10 @@
         <v>3033</v>
       </c>
       <c r="F119" t="n">
-        <v>606.0823</v>
+        <v>71</v>
       </c>
       <c r="G119" t="n">
-        <v>3028.333333333333</v>
+        <v>2991.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4875,22 +4695,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="C120" t="n">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="D120" t="n">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="E120" t="n">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="F120" t="n">
-        <v>325.7273</v>
+        <v>606.0823</v>
       </c>
       <c r="G120" t="n">
-        <v>3033.333333333333</v>
+        <v>2992.766666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4922,16 +4742,16 @@
         <v>3034</v>
       </c>
       <c r="F121" t="n">
-        <v>447.477</v>
+        <v>325.7273</v>
       </c>
       <c r="G121" t="n">
-        <v>3033.666666666667</v>
+        <v>2993.85</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4948,25 +4768,25 @@
         <v>3034</v>
       </c>
       <c r="C122" t="n">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="D122" t="n">
         <v>3034</v>
       </c>
       <c r="E122" t="n">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="F122" t="n">
-        <v>602.5623000000001</v>
+        <v>447.477</v>
       </c>
       <c r="G122" t="n">
-        <v>3033.666666666667</v>
+        <v>2994.766666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4980,28 +4800,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="C123" t="n">
         <v>3033</v>
       </c>
       <c r="D123" t="n">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="E123" t="n">
         <v>3033</v>
       </c>
       <c r="F123" t="n">
-        <v>569.9779</v>
+        <v>602.5623000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>3033.333333333333</v>
+        <v>2995.416666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5015,22 +4835,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3028</v>
+        <v>3033</v>
       </c>
       <c r="C124" t="n">
-        <v>3028</v>
+        <v>3033</v>
       </c>
       <c r="D124" t="n">
-        <v>3028</v>
+        <v>3033</v>
       </c>
       <c r="E124" t="n">
-        <v>3028</v>
+        <v>3033</v>
       </c>
       <c r="F124" t="n">
-        <v>33.025</v>
+        <v>569.9779</v>
       </c>
       <c r="G124" t="n">
-        <v>3031.333333333333</v>
+        <v>2996.033333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5050,28 +4870,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3008</v>
+        <v>3028</v>
       </c>
       <c r="C125" t="n">
-        <v>3008</v>
+        <v>3028</v>
       </c>
       <c r="D125" t="n">
-        <v>3008</v>
+        <v>3028</v>
       </c>
       <c r="E125" t="n">
-        <v>3008</v>
+        <v>3028</v>
       </c>
       <c r="F125" t="n">
-        <v>103</v>
+        <v>33.025</v>
       </c>
       <c r="G125" t="n">
-        <v>3023</v>
+        <v>2996.75</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5097,10 +4917,10 @@
         <v>3008</v>
       </c>
       <c r="F126" t="n">
-        <v>606.1478</v>
+        <v>103</v>
       </c>
       <c r="G126" t="n">
-        <v>3014.666666666667</v>
+        <v>2997.05</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5120,22 +4940,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="C127" t="n">
-        <v>3003</v>
+        <v>3008</v>
       </c>
       <c r="D127" t="n">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="E127" t="n">
-        <v>3003</v>
+        <v>3008</v>
       </c>
       <c r="F127" t="n">
-        <v>21.2432</v>
+        <v>606.1478</v>
       </c>
       <c r="G127" t="n">
-        <v>3006.333333333333</v>
+        <v>2997.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5155,22 +4975,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3001</v>
+        <v>3006</v>
       </c>
       <c r="C128" t="n">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="D128" t="n">
-        <v>3001</v>
+        <v>3006</v>
       </c>
       <c r="E128" t="n">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="F128" t="n">
-        <v>44.3148</v>
+        <v>21.2432</v>
       </c>
       <c r="G128" t="n">
-        <v>3004</v>
+        <v>2997.766666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5190,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C129" t="n">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D129" t="n">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E129" t="n">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="F129" t="n">
-        <v>137.9999</v>
+        <v>44.3148</v>
       </c>
       <c r="G129" t="n">
-        <v>3002</v>
+        <v>2997.983333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5225,22 +5045,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C130" t="n">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="D130" t="n">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="E130" t="n">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="F130" t="n">
-        <v>99.31740000000001</v>
+        <v>137.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>3001</v>
+        <v>2998.183333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5260,22 +5080,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>3001</v>
+      </c>
+      <c r="C131" t="n">
         <v>3000</v>
       </c>
-      <c r="C131" t="n">
-        <v>2991</v>
-      </c>
       <c r="D131" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E131" t="n">
         <v>3000</v>
       </c>
-      <c r="E131" t="n">
-        <v>2991</v>
-      </c>
       <c r="F131" t="n">
-        <v>285.8156</v>
+        <v>99.31740000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>2997.666666666667</v>
+        <v>2998.366666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5295,22 +5115,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3027</v>
+        <v>3000</v>
       </c>
       <c r="C132" t="n">
-        <v>3027</v>
+        <v>2991</v>
       </c>
       <c r="D132" t="n">
-        <v>3027</v>
+        <v>3000</v>
       </c>
       <c r="E132" t="n">
-        <v>3027</v>
+        <v>2991</v>
       </c>
       <c r="F132" t="n">
-        <v>3.303600925008259</v>
+        <v>285.8156</v>
       </c>
       <c r="G132" t="n">
-        <v>3006</v>
+        <v>2998.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5330,22 +5150,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="C133" t="n">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="D133" t="n">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="E133" t="n">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="F133" t="n">
-        <v>611.4078</v>
+        <v>3.303600925008259</v>
       </c>
       <c r="G133" t="n">
-        <v>3017</v>
+        <v>2999.033333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5377,10 +5197,10 @@
         <v>3033</v>
       </c>
       <c r="F134" t="n">
-        <v>362.6771</v>
+        <v>611.4078</v>
       </c>
       <c r="G134" t="n">
-        <v>3031</v>
+        <v>2999.766666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5412,16 +5232,16 @@
         <v>3033</v>
       </c>
       <c r="F135" t="n">
-        <v>16.4853</v>
+        <v>362.6771</v>
       </c>
       <c r="G135" t="n">
-        <v>3033</v>
+        <v>3000.516666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5447,10 +5267,10 @@
         <v>3033</v>
       </c>
       <c r="F136" t="n">
-        <v>9.4298</v>
+        <v>16.4853</v>
       </c>
       <c r="G136" t="n">
-        <v>3033</v>
+        <v>3001.366666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5470,22 +5290,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="C137" t="n">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="D137" t="n">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="E137" t="n">
-        <v>3043</v>
+        <v>3033</v>
       </c>
       <c r="F137" t="n">
-        <v>332.6464</v>
+        <v>9.4298</v>
       </c>
       <c r="G137" t="n">
-        <v>3036.333333333333</v>
+        <v>3002.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5505,22 +5325,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3033</v>
+        <v>3043</v>
       </c>
       <c r="C138" t="n">
-        <v>3033</v>
+        <v>3043</v>
       </c>
       <c r="D138" t="n">
-        <v>3033</v>
+        <v>3043</v>
       </c>
       <c r="E138" t="n">
-        <v>3033</v>
+        <v>3043</v>
       </c>
       <c r="F138" t="n">
-        <v>31.325</v>
+        <v>332.6464</v>
       </c>
       <c r="G138" t="n">
-        <v>3036.333333333333</v>
+        <v>3003</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5543,25 +5363,25 @@
         <v>3033</v>
       </c>
       <c r="C139" t="n">
-        <v>3021</v>
+        <v>3033</v>
       </c>
       <c r="D139" t="n">
         <v>3033</v>
       </c>
       <c r="E139" t="n">
-        <v>3021</v>
+        <v>3033</v>
       </c>
       <c r="F139" t="n">
-        <v>12.9421</v>
+        <v>31.325</v>
       </c>
       <c r="G139" t="n">
-        <v>3032.333333333333</v>
+        <v>3003.733333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5575,22 +5395,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3023</v>
+        <v>3033</v>
       </c>
       <c r="C140" t="n">
         <v>3021</v>
       </c>
       <c r="D140" t="n">
-        <v>3023</v>
+        <v>3033</v>
       </c>
       <c r="E140" t="n">
         <v>3021</v>
       </c>
       <c r="F140" t="n">
-        <v>1000</v>
+        <v>12.9421</v>
       </c>
       <c r="G140" t="n">
-        <v>3025</v>
+        <v>3004.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5610,22 +5430,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="C141" t="n">
         <v>3021</v>
       </c>
       <c r="D141" t="n">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="E141" t="n">
         <v>3021</v>
       </c>
       <c r="F141" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G141" t="n">
-        <v>3021</v>
+        <v>3005.066666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5657,10 +5477,10 @@
         <v>3021</v>
       </c>
       <c r="F142" t="n">
-        <v>256.5452</v>
+        <v>500</v>
       </c>
       <c r="G142" t="n">
-        <v>3021</v>
+        <v>3005.75</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5692,10 +5512,10 @@
         <v>3021</v>
       </c>
       <c r="F143" t="n">
-        <v>325.4548</v>
+        <v>256.5452</v>
       </c>
       <c r="G143" t="n">
-        <v>3021</v>
+        <v>3006.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5715,22 +5535,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="C144" t="n">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="D144" t="n">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="E144" t="n">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="F144" t="n">
-        <v>1992.9955</v>
+        <v>325.4548</v>
       </c>
       <c r="G144" t="n">
-        <v>3020.666666666667</v>
+        <v>3007.083333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5762,10 +5582,10 @@
         <v>3020</v>
       </c>
       <c r="F145" t="n">
-        <v>1007.0045</v>
+        <v>1992.9955</v>
       </c>
       <c r="G145" t="n">
-        <v>3020.333333333333</v>
+        <v>3007.666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5785,22 +5605,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="C146" t="n">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="D146" t="n">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="E146" t="n">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>1007.0045</v>
       </c>
       <c r="G146" t="n">
-        <v>3021.666666666667</v>
+        <v>3008.35</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5820,22 +5640,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3030</v>
+        <v>3025</v>
       </c>
       <c r="C147" t="n">
-        <v>3030</v>
+        <v>3025</v>
       </c>
       <c r="D147" t="n">
-        <v>3030</v>
+        <v>3025</v>
       </c>
       <c r="E147" t="n">
-        <v>3030</v>
+        <v>3025</v>
       </c>
       <c r="F147" t="n">
-        <v>28.8799</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="n">
-        <v>3025</v>
+        <v>3009.133333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5867,10 +5687,10 @@
         <v>3030</v>
       </c>
       <c r="F148" t="n">
-        <v>971.6464</v>
+        <v>28.8799</v>
       </c>
       <c r="G148" t="n">
-        <v>3028.333333333333</v>
+        <v>3010.033333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5890,22 +5710,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="C149" t="n">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="D149" t="n">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="E149" t="n">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="F149" t="n">
-        <v>136.8712</v>
+        <v>971.6464</v>
       </c>
       <c r="G149" t="n">
-        <v>3032.333333333333</v>
+        <v>3011.183333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5937,10 +5757,10 @@
         <v>3037</v>
       </c>
       <c r="F150" t="n">
-        <v>4.6534</v>
+        <v>136.8712</v>
       </c>
       <c r="G150" t="n">
-        <v>3034.666666666667</v>
+        <v>3012.416666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5960,22 +5780,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3016</v>
+        <v>3037</v>
       </c>
       <c r="C151" t="n">
-        <v>3016</v>
+        <v>3037</v>
       </c>
       <c r="D151" t="n">
-        <v>3016</v>
+        <v>3037</v>
       </c>
       <c r="E151" t="n">
-        <v>3016</v>
+        <v>3037</v>
       </c>
       <c r="F151" t="n">
-        <v>977.9432</v>
+        <v>4.6534</v>
       </c>
       <c r="G151" t="n">
-        <v>3030</v>
+        <v>3013.45</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5995,22 +5815,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3024</v>
+        <v>3016</v>
       </c>
       <c r="C152" t="n">
-        <v>3024</v>
+        <v>3016</v>
       </c>
       <c r="D152" t="n">
-        <v>3024</v>
+        <v>3016</v>
       </c>
       <c r="E152" t="n">
-        <v>3024</v>
+        <v>3016</v>
       </c>
       <c r="F152" t="n">
-        <v>59.1355</v>
+        <v>977.9432</v>
       </c>
       <c r="G152" t="n">
-        <v>3025.666666666667</v>
+        <v>3013.916666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6042,10 +5862,10 @@
         <v>3024</v>
       </c>
       <c r="F153" t="n">
-        <v>56.9041</v>
+        <v>59.1355</v>
       </c>
       <c r="G153" t="n">
-        <v>3021.333333333333</v>
+        <v>3014.533333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6065,22 +5885,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3016</v>
+        <v>3024</v>
       </c>
       <c r="C154" t="n">
-        <v>3010</v>
+        <v>3024</v>
       </c>
       <c r="D154" t="n">
-        <v>3016</v>
+        <v>3024</v>
       </c>
       <c r="E154" t="n">
-        <v>3010</v>
+        <v>3024</v>
       </c>
       <c r="F154" t="n">
-        <v>172.413</v>
+        <v>56.9041</v>
       </c>
       <c r="G154" t="n">
-        <v>3019.333333333333</v>
+        <v>3015.15</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6100,22 +5920,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>3016</v>
+      </c>
+      <c r="C155" t="n">
         <v>3010</v>
       </c>
-      <c r="C155" t="n">
-        <v>3009</v>
-      </c>
       <c r="D155" t="n">
+        <v>3016</v>
+      </c>
+      <c r="E155" t="n">
         <v>3010</v>
       </c>
-      <c r="E155" t="n">
-        <v>3009</v>
-      </c>
       <c r="F155" t="n">
-        <v>10.2208</v>
+        <v>172.413</v>
       </c>
       <c r="G155" t="n">
-        <v>3014.333333333333</v>
+        <v>3015.433333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6135,22 +5955,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="C156" t="n">
         <v>3009</v>
       </c>
       <c r="D156" t="n">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="E156" t="n">
         <v>3009</v>
       </c>
       <c r="F156" t="n">
-        <v>75.8301</v>
+        <v>10.2208</v>
       </c>
       <c r="G156" t="n">
-        <v>3009.333333333333</v>
+        <v>3015.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6170,22 +5990,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="C157" t="n">
-        <v>3005</v>
+        <v>3009</v>
       </c>
       <c r="D157" t="n">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="E157" t="n">
-        <v>3005</v>
+        <v>3009</v>
       </c>
       <c r="F157" t="n">
-        <v>65.3617</v>
+        <v>75.8301</v>
       </c>
       <c r="G157" t="n">
-        <v>3007.666666666667</v>
+        <v>3015.983333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6205,22 +6025,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3016</v>
+        <v>3007</v>
       </c>
       <c r="C158" t="n">
-        <v>3016</v>
+        <v>3005</v>
       </c>
       <c r="D158" t="n">
-        <v>3016</v>
+        <v>3007</v>
       </c>
       <c r="E158" t="n">
-        <v>3016</v>
+        <v>3005</v>
       </c>
       <c r="F158" t="n">
-        <v>498</v>
+        <v>65.3617</v>
       </c>
       <c r="G158" t="n">
-        <v>3010</v>
+        <v>3016.416666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6240,22 +6060,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="C159" t="n">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="D159" t="n">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="E159" t="n">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="F159" t="n">
-        <v>0.75</v>
+        <v>498</v>
       </c>
       <c r="G159" t="n">
-        <v>3013</v>
+        <v>3017.066666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6275,22 +6095,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3037</v>
+        <v>3018</v>
       </c>
       <c r="C160" t="n">
-        <v>3037</v>
+        <v>3018</v>
       </c>
       <c r="D160" t="n">
-        <v>3037</v>
+        <v>3018</v>
       </c>
       <c r="E160" t="n">
-        <v>3037</v>
+        <v>3018</v>
       </c>
       <c r="F160" t="n">
-        <v>50.8873</v>
+        <v>0.75</v>
       </c>
       <c r="G160" t="n">
-        <v>3023.666666666667</v>
+        <v>3017.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6310,22 +6130,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="C161" t="n">
-        <v>3045</v>
+        <v>3037</v>
       </c>
       <c r="D161" t="n">
-        <v>3045</v>
+        <v>3037</v>
       </c>
       <c r="E161" t="n">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="F161" t="n">
-        <v>1353.2571</v>
+        <v>50.8873</v>
       </c>
       <c r="G161" t="n">
-        <v>3033.333333333333</v>
+        <v>3018.25</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6345,22 +6165,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>3039</v>
+      </c>
+      <c r="C162" t="n">
         <v>3045</v>
       </c>
-      <c r="C162" t="n">
-        <v>3046</v>
-      </c>
       <c r="D162" t="n">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="E162" t="n">
-        <v>3045</v>
+        <v>3039</v>
       </c>
       <c r="F162" t="n">
-        <v>279.6547</v>
+        <v>1353.2571</v>
       </c>
       <c r="G162" t="n">
-        <v>3042.666666666667</v>
+        <v>3019</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6380,22 +6200,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="C163" t="n">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="D163" t="n">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="E163" t="n">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="F163" t="n">
-        <v>99.87893700787401</v>
+        <v>279.6547</v>
       </c>
       <c r="G163" t="n">
-        <v>3046.333333333333</v>
+        <v>3019.766666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6427,10 +6247,10 @@
         <v>3048</v>
       </c>
       <c r="F164" t="n">
-        <v>38.8</v>
+        <v>99.87893700787401</v>
       </c>
       <c r="G164" t="n">
-        <v>3047.333333333333</v>
+        <v>3020.566666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6450,22 +6270,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C165" t="n">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="D165" t="n">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="E165" t="n">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>38.8</v>
       </c>
       <c r="G165" t="n">
-        <v>3048.333333333333</v>
+        <v>3021.316666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6485,22 +6305,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="C166" t="n">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D166" t="n">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="E166" t="n">
         <v>3049</v>
       </c>
       <c r="F166" t="n">
-        <v>3124.6264</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>3049</v>
+        <v>3022.083333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6529,13 +6349,13 @@
         <v>3050</v>
       </c>
       <c r="E167" t="n">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="F167" t="n">
-        <v>7.2131147540983e-05</v>
+        <v>3124.6264</v>
       </c>
       <c r="G167" t="n">
-        <v>3049.666666666667</v>
+        <v>3022.866666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6555,22 +6375,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="C168" t="n">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="D168" t="n">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="E168" t="n">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="F168" t="n">
-        <v>320.6573</v>
+        <v>7.2131147540983e-05</v>
       </c>
       <c r="G168" t="n">
-        <v>3049.666666666667</v>
+        <v>3023.633333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6590,22 +6410,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="C169" t="n">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="D169" t="n">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="E169" t="n">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>320.6573</v>
       </c>
       <c r="G169" t="n">
-        <v>3050.333333333333</v>
+        <v>3024.383333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6625,22 +6445,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="C170" t="n">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="D170" t="n">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="E170" t="n">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="F170" t="n">
-        <v>23.9486</v>
+        <v>50</v>
       </c>
       <c r="G170" t="n">
-        <v>3051.666666666667</v>
+        <v>3025.083333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6660,22 +6480,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3045</v>
+        <v>3054</v>
       </c>
       <c r="C171" t="n">
-        <v>3045</v>
+        <v>3054</v>
       </c>
       <c r="D171" t="n">
-        <v>3045</v>
+        <v>3054</v>
       </c>
       <c r="E171" t="n">
-        <v>3045</v>
+        <v>3054</v>
       </c>
       <c r="F171" t="n">
-        <v>583.8631</v>
+        <v>23.9486</v>
       </c>
       <c r="G171" t="n">
-        <v>3050.333333333333</v>
+        <v>3025.833333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6695,22 +6515,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="C172" t="n">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="D172" t="n">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="E172" t="n">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="F172" t="n">
-        <v>58.3863</v>
+        <v>583.8631</v>
       </c>
       <c r="G172" t="n">
-        <v>3049.666666666667</v>
+        <v>3026.433333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6730,22 +6550,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="C173" t="n">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="D173" t="n">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="E173" t="n">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="F173" t="n">
-        <v>300</v>
+        <v>58.3863</v>
       </c>
       <c r="G173" t="n">
-        <v>3051</v>
+        <v>3026.966666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6777,10 +6597,10 @@
         <v>3058</v>
       </c>
       <c r="F174" t="n">
-        <v>2.6</v>
+        <v>300</v>
       </c>
       <c r="G174" t="n">
-        <v>3055.333333333333</v>
+        <v>3027.483333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6812,10 +6632,10 @@
         <v>3058</v>
       </c>
       <c r="F175" t="n">
-        <v>40</v>
+        <v>2.6</v>
       </c>
       <c r="G175" t="n">
-        <v>3058</v>
+        <v>3028.316666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6835,22 +6655,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3050</v>
+        <v>3058</v>
       </c>
       <c r="C176" t="n">
-        <v>3050</v>
+        <v>3058</v>
       </c>
       <c r="D176" t="n">
-        <v>3050</v>
+        <v>3058</v>
       </c>
       <c r="E176" t="n">
-        <v>3050</v>
+        <v>3058</v>
       </c>
       <c r="F176" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G176" t="n">
-        <v>3055.333333333333</v>
+        <v>3029.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6870,22 +6690,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="C177" t="n">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="D177" t="n">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="E177" t="n">
-        <v>3058</v>
+        <v>3050</v>
       </c>
       <c r="F177" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G177" t="n">
-        <v>3055.333333333333</v>
+        <v>3029.616666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6905,22 +6725,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="C178" t="n">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="D178" t="n">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="E178" t="n">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6</v>
+        <v>100</v>
       </c>
       <c r="G178" t="n">
-        <v>3055.666666666667</v>
+        <v>3030.266666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6952,10 +6772,10 @@
         <v>3059</v>
       </c>
       <c r="F179" t="n">
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="G179" t="n">
-        <v>3058.666666666667</v>
+        <v>3030.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6987,10 +6807,10 @@
         <v>3059</v>
       </c>
       <c r="F180" t="n">
-        <v>0.2</v>
+        <v>80</v>
       </c>
       <c r="G180" t="n">
-        <v>3059</v>
+        <v>3031.133333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7010,22 +6830,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3050</v>
+        <v>3059</v>
       </c>
       <c r="C181" t="n">
-        <v>3047</v>
+        <v>3059</v>
       </c>
       <c r="D181" t="n">
-        <v>3050</v>
+        <v>3059</v>
       </c>
       <c r="E181" t="n">
-        <v>3047</v>
+        <v>3059</v>
       </c>
       <c r="F181" t="n">
-        <v>261.0999</v>
+        <v>0.2</v>
       </c>
       <c r="G181" t="n">
-        <v>3055</v>
+        <v>3031.55</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7045,22 +6865,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="C182" t="n">
         <v>3047</v>
       </c>
       <c r="D182" t="n">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="E182" t="n">
         <v>3047</v>
       </c>
       <c r="F182" t="n">
-        <v>25.655</v>
+        <v>261.0999</v>
       </c>
       <c r="G182" t="n">
-        <v>3051</v>
+        <v>3031.766666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7092,10 +6912,10 @@
         <v>3047</v>
       </c>
       <c r="F183" t="n">
-        <v>4.1203</v>
+        <v>25.655</v>
       </c>
       <c r="G183" t="n">
-        <v>3047</v>
+        <v>3032</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7115,22 +6935,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="C184" t="n">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="D184" t="n">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="E184" t="n">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>4.1203</v>
       </c>
       <c r="G184" t="n">
-        <v>3048.333333333333</v>
+        <v>3032.233333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7162,10 +6982,10 @@
         <v>3051</v>
       </c>
       <c r="F185" t="n">
-        <v>40.0794</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>3049.666666666667</v>
+        <v>3032.616666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7185,22 +7005,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3043</v>
+        <v>3051</v>
       </c>
       <c r="C186" t="n">
-        <v>3041</v>
+        <v>3051</v>
       </c>
       <c r="D186" t="n">
-        <v>3043</v>
+        <v>3051</v>
       </c>
       <c r="E186" t="n">
-        <v>3041</v>
+        <v>3051</v>
       </c>
       <c r="F186" t="n">
-        <v>564.658</v>
+        <v>40.0794</v>
       </c>
       <c r="G186" t="n">
-        <v>3047.666666666667</v>
+        <v>3033.333333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7220,22 +7040,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3051</v>
+        <v>3043</v>
       </c>
       <c r="C187" t="n">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="D187" t="n">
-        <v>3051</v>
+        <v>3043</v>
       </c>
       <c r="E187" t="n">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>564.658</v>
       </c>
       <c r="G187" t="n">
-        <v>3047.666666666667</v>
+        <v>3033.883333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7258,19 +7078,19 @@
         <v>3051</v>
       </c>
       <c r="C188" t="n">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="D188" t="n">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="E188" t="n">
         <v>3051</v>
       </c>
       <c r="F188" t="n">
-        <v>170.9816642436149</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>3049</v>
+        <v>3034.683333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7290,22 +7110,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="C189" t="n">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="D189" t="n">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="E189" t="n">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="F189" t="n">
-        <v>1432.767</v>
+        <v>170.9816642436149</v>
       </c>
       <c r="G189" t="n">
-        <v>3052.666666666667</v>
+        <v>3035.583333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7325,22 +7145,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="C190" t="n">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D190" t="n">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="E190" t="n">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3277</v>
+        <v>1432.767</v>
       </c>
       <c r="G190" t="n">
-        <v>3052.666666666667</v>
+        <v>3036.416666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7360,22 +7180,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3043</v>
+        <v>3051</v>
       </c>
       <c r="C191" t="n">
-        <v>3043</v>
+        <v>3051</v>
       </c>
       <c r="D191" t="n">
-        <v>3043</v>
+        <v>3051</v>
       </c>
       <c r="E191" t="n">
-        <v>3043</v>
+        <v>3051</v>
       </c>
       <c r="F191" t="n">
-        <v>214.2053</v>
+        <v>0.3277</v>
       </c>
       <c r="G191" t="n">
-        <v>3048.666666666667</v>
+        <v>3037.266666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7407,10 +7227,10 @@
         <v>3043</v>
       </c>
       <c r="F192" t="n">
-        <v>177.9847</v>
+        <v>214.2053</v>
       </c>
       <c r="G192" t="n">
-        <v>3045.666666666667</v>
+        <v>3038.133333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7433,19 +7253,19 @@
         <v>3043</v>
       </c>
       <c r="C193" t="n">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="D193" t="n">
         <v>3043</v>
       </c>
       <c r="E193" t="n">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="F193" t="n">
-        <v>1236.6736</v>
+        <v>177.9847</v>
       </c>
       <c r="G193" t="n">
-        <v>3042</v>
+        <v>3038.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7465,22 +7285,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="C194" t="n">
         <v>3040</v>
       </c>
       <c r="D194" t="n">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="E194" t="n">
         <v>3040</v>
       </c>
       <c r="F194" t="n">
-        <v>230.2292</v>
+        <v>1236.6736</v>
       </c>
       <c r="G194" t="n">
-        <v>3041</v>
+        <v>3038.516666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7500,22 +7320,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="C195" t="n">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="D195" t="n">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="E195" t="n">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="F195" t="n">
-        <v>226</v>
+        <v>230.2292</v>
       </c>
       <c r="G195" t="n">
-        <v>3039.666666666667</v>
+        <v>3038.633333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7538,19 +7358,19 @@
         <v>3039</v>
       </c>
       <c r="C196" t="n">
-        <v>3026</v>
+        <v>3039</v>
       </c>
       <c r="D196" t="n">
         <v>3039</v>
       </c>
       <c r="E196" t="n">
-        <v>3026</v>
+        <v>3039</v>
       </c>
       <c r="F196" t="n">
-        <v>3114.8703</v>
+        <v>226</v>
       </c>
       <c r="G196" t="n">
-        <v>3035</v>
+        <v>3038.733333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7570,22 +7390,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3031</v>
+        <v>3039</v>
       </c>
       <c r="C197" t="n">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="D197" t="n">
-        <v>3031</v>
+        <v>3039</v>
       </c>
       <c r="E197" t="n">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="F197" t="n">
-        <v>1874.9097</v>
+        <v>3114.8703</v>
       </c>
       <c r="G197" t="n">
-        <v>3031</v>
+        <v>3038.616666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7605,22 +7425,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3040</v>
+        <v>3031</v>
       </c>
       <c r="C198" t="n">
-        <v>3041</v>
+        <v>3028</v>
       </c>
       <c r="D198" t="n">
-        <v>3041</v>
+        <v>3031</v>
       </c>
       <c r="E198" t="n">
-        <v>3040</v>
+        <v>3028</v>
       </c>
       <c r="F198" t="n">
-        <v>300.3011</v>
+        <v>1874.9097</v>
       </c>
       <c r="G198" t="n">
-        <v>3031.666666666667</v>
+        <v>3038.366666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7640,22 +7460,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="C199" t="n">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="D199" t="n">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="E199" t="n">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="F199" t="n">
-        <v>165.6976</v>
+        <v>300.3011</v>
       </c>
       <c r="G199" t="n">
-        <v>3036</v>
+        <v>3038.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7675,22 +7495,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3051</v>
+        <v>3039</v>
       </c>
       <c r="C200" t="n">
-        <v>3051</v>
+        <v>3039</v>
       </c>
       <c r="D200" t="n">
-        <v>3051</v>
+        <v>3039</v>
       </c>
       <c r="E200" t="n">
-        <v>3051</v>
+        <v>3039</v>
       </c>
       <c r="F200" t="n">
-        <v>15.7564</v>
+        <v>165.6976</v>
       </c>
       <c r="G200" t="n">
-        <v>3043.666666666667</v>
+        <v>3038.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7710,22 +7530,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="C201" t="n">
-        <v>3056</v>
+        <v>3051</v>
       </c>
       <c r="D201" t="n">
-        <v>3056</v>
+        <v>3051</v>
       </c>
       <c r="E201" t="n">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="F201" t="n">
-        <v>752.282</v>
+        <v>15.7564</v>
       </c>
       <c r="G201" t="n">
-        <v>3048.666666666667</v>
+        <v>3039.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7745,22 +7565,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>3054</v>
+      </c>
+      <c r="C202" t="n">
         <v>3056</v>
       </c>
-      <c r="C202" t="n">
-        <v>3059</v>
-      </c>
       <c r="D202" t="n">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="E202" t="n">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="F202" t="n">
-        <v>20.3394</v>
+        <v>752.282</v>
       </c>
       <c r="G202" t="n">
-        <v>3055.333333333333</v>
+        <v>3039.883333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7780,7 +7600,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="C203" t="n">
         <v>3059</v>
@@ -7789,13 +7609,13 @@
         <v>3059</v>
       </c>
       <c r="E203" t="n">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="F203" t="n">
-        <v>14</v>
+        <v>20.3394</v>
       </c>
       <c r="G203" t="n">
-        <v>3058</v>
+        <v>3040.516666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7818,19 +7638,19 @@
         <v>3059</v>
       </c>
       <c r="C204" t="n">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="D204" t="n">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="E204" t="n">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="F204" t="n">
-        <v>1245.8509</v>
+        <v>14</v>
       </c>
       <c r="G204" t="n">
-        <v>3060</v>
+        <v>3041.15</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7850,22 +7670,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>3064</v>
+        <v>3059</v>
       </c>
       <c r="C205" t="n">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="D205" t="n">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="E205" t="n">
-        <v>3064</v>
+        <v>3058</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>1245.8509</v>
       </c>
       <c r="G205" t="n">
-        <v>3061.666666666667</v>
+        <v>3041.85</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7885,22 +7705,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>3050</v>
+        <v>3064</v>
       </c>
       <c r="C206" t="n">
-        <v>3050</v>
+        <v>3064</v>
       </c>
       <c r="D206" t="n">
-        <v>3050</v>
+        <v>3064</v>
       </c>
       <c r="E206" t="n">
-        <v>3050</v>
+        <v>3064</v>
       </c>
       <c r="F206" t="n">
-        <v>176.224</v>
+        <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>3058.666666666667</v>
+        <v>3042.583333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7932,10 +7752,10 @@
         <v>3050</v>
       </c>
       <c r="F207" t="n">
-        <v>1196.9793</v>
+        <v>176.224</v>
       </c>
       <c r="G207" t="n">
-        <v>3054.666666666667</v>
+        <v>3043</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7955,22 +7775,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="C208" t="n">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="D208" t="n">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="E208" t="n">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="F208" t="n">
-        <v>80.50409999999999</v>
+        <v>1196.9793</v>
       </c>
       <c r="G208" t="n">
-        <v>3053.333333333333</v>
+        <v>3043.333333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8002,10 +7822,10 @@
         <v>3060</v>
       </c>
       <c r="F209" t="n">
-        <v>17.5354</v>
+        <v>80.50409999999999</v>
       </c>
       <c r="G209" t="n">
-        <v>3056.666666666667</v>
+        <v>3043.833333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8025,22 +7845,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="C210" t="n">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="D210" t="n">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="E210" t="n">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="F210" t="n">
-        <v>81.504</v>
+        <v>17.5354</v>
       </c>
       <c r="G210" t="n">
-        <v>3060.666666666667</v>
+        <v>3044.216666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8060,22 +7880,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="C211" t="n">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="D211" t="n">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="E211" t="n">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="F211" t="n">
-        <v>1</v>
+        <v>81.504</v>
       </c>
       <c r="G211" t="n">
-        <v>3061.666666666667</v>
+        <v>3044.633333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8095,22 +7915,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>3073</v>
+        <v>3063</v>
       </c>
       <c r="C212" t="n">
-        <v>3073</v>
+        <v>3063</v>
       </c>
       <c r="D212" t="n">
-        <v>3073</v>
+        <v>3063</v>
       </c>
       <c r="E212" t="n">
-        <v>3073</v>
+        <v>3063</v>
       </c>
       <c r="F212" t="n">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>3066</v>
+        <v>3045.416666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8142,10 +7962,10 @@
         <v>3073</v>
       </c>
       <c r="F213" t="n">
-        <v>116.8469</v>
+        <v>310</v>
       </c>
       <c r="G213" t="n">
-        <v>3069.666666666667</v>
+        <v>3046.233333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8168,19 +7988,19 @@
         <v>3073</v>
       </c>
       <c r="C214" t="n">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="D214" t="n">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="E214" t="n">
         <v>3073</v>
       </c>
       <c r="F214" t="n">
-        <v>2102.5571</v>
+        <v>116.8469</v>
       </c>
       <c r="G214" t="n">
-        <v>3074.333333333333</v>
+        <v>3047.05</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8200,7 +8020,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="C215" t="n">
         <v>3077</v>
@@ -8209,13 +8029,13 @@
         <v>3077</v>
       </c>
       <c r="E215" t="n">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="F215" t="n">
-        <v>2181.892975292588</v>
+        <v>2102.5571</v>
       </c>
       <c r="G215" t="n">
-        <v>3075.666666666667</v>
+        <v>3048.166666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8235,22 +8055,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="C216" t="n">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D216" t="n">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E216" t="n">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="F216" t="n">
-        <v>143</v>
+        <v>2181.892975292588</v>
       </c>
       <c r="G216" t="n">
-        <v>3077.333333333333</v>
+        <v>3049.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8282,10 +8102,10 @@
         <v>3078</v>
       </c>
       <c r="F217" t="n">
-        <v>0.9983755685510072</v>
+        <v>143</v>
       </c>
       <c r="G217" t="n">
-        <v>3077.666666666667</v>
+        <v>3050.45</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8317,10 +8137,10 @@
         <v>3078</v>
       </c>
       <c r="F218" t="n">
-        <v>278.4896</v>
+        <v>0.9983755685510072</v>
       </c>
       <c r="G218" t="n">
-        <v>3078</v>
+        <v>3051.666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8340,22 +8160,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3073</v>
+        <v>3078</v>
       </c>
       <c r="C219" t="n">
-        <v>3070</v>
+        <v>3078</v>
       </c>
       <c r="D219" t="n">
-        <v>3073</v>
+        <v>3078</v>
       </c>
       <c r="E219" t="n">
-        <v>3070</v>
+        <v>3078</v>
       </c>
       <c r="F219" t="n">
-        <v>599.0001</v>
+        <v>278.4896</v>
       </c>
       <c r="G219" t="n">
-        <v>3075.333333333333</v>
+        <v>3052.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8375,22 +8195,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3070</v>
+        <v>3073</v>
       </c>
       <c r="C220" t="n">
         <v>3070</v>
       </c>
       <c r="D220" t="n">
-        <v>3070</v>
+        <v>3073</v>
       </c>
       <c r="E220" t="n">
         <v>3070</v>
       </c>
       <c r="F220" t="n">
-        <v>126.9454</v>
+        <v>599.0001</v>
       </c>
       <c r="G220" t="n">
-        <v>3072.666666666667</v>
+        <v>3053.566666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8410,22 +8230,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="C221" t="n">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="D221" t="n">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="E221" t="n">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="F221" t="n">
-        <v>628.4965</v>
+        <v>126.9454</v>
       </c>
       <c r="G221" t="n">
-        <v>3069.666666666667</v>
+        <v>3054.116666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8448,19 +8268,19 @@
         <v>3071</v>
       </c>
       <c r="C222" t="n">
-        <v>3074</v>
+        <v>3069</v>
       </c>
       <c r="D222" t="n">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="E222" t="n">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="F222" t="n">
-        <v>1917.651040988939</v>
+        <v>628.4965</v>
       </c>
       <c r="G222" t="n">
-        <v>3071</v>
+        <v>3054.516666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8483,19 +8303,19 @@
         <v>3071</v>
       </c>
       <c r="C223" t="n">
-        <v>3068</v>
+        <v>3074</v>
       </c>
       <c r="D223" t="n">
         <v>3074</v>
       </c>
       <c r="E223" t="n">
-        <v>3068</v>
+        <v>3071</v>
       </c>
       <c r="F223" t="n">
-        <v>3456.780417078725</v>
+        <v>1917.651040988939</v>
       </c>
       <c r="G223" t="n">
-        <v>3070.333333333333</v>
+        <v>3054.983333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8515,22 +8335,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>3067</v>
+        <v>3071</v>
       </c>
       <c r="C224" t="n">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="D224" t="n">
-        <v>3067</v>
+        <v>3074</v>
       </c>
       <c r="E224" t="n">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="F224" t="n">
-        <v>2</v>
+        <v>3456.780417078725</v>
       </c>
       <c r="G224" t="n">
-        <v>3069.333333333333</v>
+        <v>3055.316666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8550,22 +8370,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>3073</v>
+        <v>3067</v>
       </c>
       <c r="C225" t="n">
-        <v>3073</v>
+        <v>3066</v>
       </c>
       <c r="D225" t="n">
-        <v>3073</v>
+        <v>3067</v>
       </c>
       <c r="E225" t="n">
-        <v>3073</v>
+        <v>3066</v>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G225" t="n">
-        <v>3069</v>
+        <v>3055.616666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8597,10 +8417,10 @@
         <v>3073</v>
       </c>
       <c r="F226" t="n">
-        <v>97.4581</v>
+        <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>3070.666666666667</v>
+        <v>3056.016666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8620,22 +8440,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3065</v>
+        <v>3073</v>
       </c>
       <c r="C227" t="n">
-        <v>3064</v>
+        <v>3073</v>
       </c>
       <c r="D227" t="n">
-        <v>3065</v>
+        <v>3073</v>
       </c>
       <c r="E227" t="n">
-        <v>3064</v>
+        <v>3073</v>
       </c>
       <c r="F227" t="n">
-        <v>2</v>
+        <v>97.4581</v>
       </c>
       <c r="G227" t="n">
-        <v>3070</v>
+        <v>3056.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8655,22 +8475,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>3063</v>
+        <v>3065</v>
       </c>
       <c r="C228" t="n">
-        <v>3062</v>
+        <v>3064</v>
       </c>
       <c r="D228" t="n">
-        <v>3063</v>
+        <v>3065</v>
       </c>
       <c r="E228" t="n">
-        <v>3062</v>
+        <v>3064</v>
       </c>
       <c r="F228" t="n">
         <v>2</v>
       </c>
       <c r="G228" t="n">
-        <v>3066.333333333333</v>
+        <v>3056.633333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8690,13 +8510,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
+        <v>3063</v>
+      </c>
+      <c r="C229" t="n">
         <v>3062</v>
       </c>
-      <c r="C229" t="n">
-        <v>3066</v>
-      </c>
       <c r="D229" t="n">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="E229" t="n">
         <v>3062</v>
@@ -8705,7 +8525,7 @@
         <v>2</v>
       </c>
       <c r="G229" t="n">
-        <v>3064</v>
+        <v>3056.85</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8728,19 +8548,19 @@
         <v>3062</v>
       </c>
       <c r="C230" t="n">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="D230" t="n">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="E230" t="n">
         <v>3062</v>
       </c>
       <c r="F230" t="n">
-        <v>69.62860000000001</v>
+        <v>2</v>
       </c>
       <c r="G230" t="n">
-        <v>3063.333333333333</v>
+        <v>3057.083333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8760,22 +8580,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="C231" t="n">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="D231" t="n">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="E231" t="n">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="F231" t="n">
-        <v>52.5753</v>
+        <v>69.62860000000001</v>
       </c>
       <c r="G231" t="n">
-        <v>3064</v>
+        <v>3057.216666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8795,22 +8615,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="C232" t="n">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="D232" t="n">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="E232" t="n">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="F232" t="n">
-        <v>1</v>
+        <v>52.5753</v>
       </c>
       <c r="G232" t="n">
-        <v>3062.333333333333</v>
+        <v>3057.533333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8830,22 +8650,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="C233" t="n">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="D233" t="n">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="E233" t="n">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="F233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>3061.333333333333</v>
+        <v>3057.716666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8865,22 +8685,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="C234" t="n">
-        <v>3057</v>
+        <v>3059</v>
       </c>
       <c r="D234" t="n">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="E234" t="n">
-        <v>3057</v>
+        <v>3059</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
       </c>
       <c r="G234" t="n">
-        <v>3059</v>
+        <v>3057.733333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8900,22 +8720,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="C235" t="n">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="D235" t="n">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="E235" t="n">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="F235" t="n">
         <v>2</v>
       </c>
       <c r="G235" t="n">
-        <v>3057</v>
+        <v>3057.716666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8935,22 +8755,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="C236" t="n">
-        <v>3032</v>
+        <v>3055</v>
       </c>
       <c r="D236" t="n">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="E236" t="n">
-        <v>3032</v>
+        <v>3055</v>
       </c>
       <c r="F236" t="n">
-        <v>3025.8639</v>
+        <v>2</v>
       </c>
       <c r="G236" t="n">
-        <v>3048</v>
+        <v>3057.666666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8970,22 +8790,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="C237" t="n">
-        <v>3026</v>
+        <v>3032</v>
       </c>
       <c r="D237" t="n">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="E237" t="n">
-        <v>3026</v>
+        <v>3032</v>
       </c>
       <c r="F237" t="n">
-        <v>46</v>
+        <v>3025.8639</v>
       </c>
       <c r="G237" t="n">
-        <v>3037.666666666667</v>
+        <v>3057.366666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9005,22 +8825,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>3025</v>
+        <v>3031</v>
       </c>
       <c r="C238" t="n">
-        <v>3017</v>
+        <v>3026</v>
       </c>
       <c r="D238" t="n">
-        <v>3025</v>
+        <v>3031</v>
       </c>
       <c r="E238" t="n">
-        <v>3017</v>
+        <v>3026</v>
       </c>
       <c r="F238" t="n">
-        <v>10.6775</v>
+        <v>46</v>
       </c>
       <c r="G238" t="n">
-        <v>3025</v>
+        <v>3056.833333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9040,22 +8860,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>3016</v>
+        <v>3025</v>
       </c>
       <c r="C239" t="n">
-        <v>3010</v>
+        <v>3017</v>
       </c>
       <c r="D239" t="n">
-        <v>3016</v>
+        <v>3025</v>
       </c>
       <c r="E239" t="n">
-        <v>3010</v>
+        <v>3017</v>
       </c>
       <c r="F239" t="n">
-        <v>7</v>
+        <v>10.6775</v>
       </c>
       <c r="G239" t="n">
-        <v>3017.666666666667</v>
+        <v>3056.133333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9075,22 +8895,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="C240" t="n">
-        <v>3024</v>
+        <v>3010</v>
       </c>
       <c r="D240" t="n">
-        <v>3024</v>
+        <v>3016</v>
       </c>
       <c r="E240" t="n">
-        <v>3018</v>
+        <v>3010</v>
       </c>
       <c r="F240" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G240" t="n">
-        <v>3017</v>
+        <v>3055.316666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9110,22 +8930,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>3013</v>
+        <v>3018</v>
       </c>
       <c r="C241" t="n">
-        <v>3010</v>
+        <v>3024</v>
       </c>
       <c r="D241" t="n">
-        <v>3013</v>
+        <v>3024</v>
       </c>
       <c r="E241" t="n">
-        <v>3010</v>
+        <v>3018</v>
       </c>
       <c r="F241" t="n">
-        <v>549.649</v>
+        <v>2</v>
       </c>
       <c r="G241" t="n">
-        <v>3014.666666666667</v>
+        <v>3054.733333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9145,22 +8965,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>3009</v>
+        <v>3013</v>
       </c>
       <c r="C242" t="n">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="D242" t="n">
+        <v>3013</v>
+      </c>
+      <c r="E242" t="n">
         <v>3010</v>
       </c>
-      <c r="E242" t="n">
-        <v>3007</v>
-      </c>
       <c r="F242" t="n">
-        <v>911.2044</v>
+        <v>549.649</v>
       </c>
       <c r="G242" t="n">
-        <v>3013.666666666667</v>
+        <v>3054.116666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9180,22 +9000,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="C243" t="n">
         <v>3007</v>
       </c>
       <c r="D243" t="n">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="E243" t="n">
         <v>3007</v>
       </c>
       <c r="F243" t="n">
-        <v>886.5896</v>
+        <v>911.2044</v>
       </c>
       <c r="G243" t="n">
-        <v>3008</v>
+        <v>3053.45</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9215,22 +9035,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="C244" t="n">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="D244" t="n">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="E244" t="n">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="F244" t="n">
-        <v>656.7598</v>
+        <v>886.5896</v>
       </c>
       <c r="G244" t="n">
-        <v>3008</v>
+        <v>3052.783333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9262,10 +9082,10 @@
         <v>3010</v>
       </c>
       <c r="F245" t="n">
-        <v>552.9134</v>
+        <v>656.7598</v>
       </c>
       <c r="G245" t="n">
-        <v>3009</v>
+        <v>3052.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9297,10 +9117,10 @@
         <v>3010</v>
       </c>
       <c r="F246" t="n">
-        <v>255.3295</v>
+        <v>552.9134</v>
       </c>
       <c r="G246" t="n">
-        <v>3010</v>
+        <v>3051.416666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9332,10 +9152,10 @@
         <v>3010</v>
       </c>
       <c r="F247" t="n">
-        <v>422.0001</v>
+        <v>255.3295</v>
       </c>
       <c r="G247" t="n">
-        <v>3010</v>
+        <v>3050.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9367,10 +9187,10 @@
         <v>3010</v>
       </c>
       <c r="F248" t="n">
-        <v>498.9849</v>
+        <v>422.0001</v>
       </c>
       <c r="G248" t="n">
-        <v>3010</v>
+        <v>3050.216666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9390,22 +9210,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>3023</v>
+        <v>3010</v>
       </c>
       <c r="C249" t="n">
-        <v>3023</v>
+        <v>3010</v>
       </c>
       <c r="D249" t="n">
-        <v>3023</v>
+        <v>3010</v>
       </c>
       <c r="E249" t="n">
-        <v>3023</v>
+        <v>3010</v>
       </c>
       <c r="F249" t="n">
-        <v>614.2381</v>
+        <v>498.9849</v>
       </c>
       <c r="G249" t="n">
-        <v>3014.333333333333</v>
+        <v>3049.466666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9428,19 +9248,19 @@
         <v>3023</v>
       </c>
       <c r="C250" t="n">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="D250" t="n">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="E250" t="n">
         <v>3023</v>
       </c>
       <c r="F250" t="n">
-        <v>249.0286</v>
+        <v>614.2381</v>
       </c>
       <c r="G250" t="n">
-        <v>3019</v>
+        <v>3048.983333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9460,22 +9280,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="C251" t="n">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="D251" t="n">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="E251" t="n">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="F251" t="n">
-        <v>38.1236</v>
+        <v>249.0286</v>
       </c>
       <c r="G251" t="n">
-        <v>3024.666666666667</v>
+        <v>3048.533333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9495,22 +9315,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="C252" t="n">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="D252" t="n">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="E252" t="n">
-        <v>3033</v>
+        <v>3027</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>38.1236</v>
       </c>
       <c r="G252" t="n">
-        <v>3028</v>
+        <v>3048.266666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9530,22 +9350,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>3022</v>
+        <v>3033</v>
       </c>
       <c r="C253" t="n">
-        <v>3022</v>
+        <v>3033</v>
       </c>
       <c r="D253" t="n">
-        <v>3022</v>
+        <v>3033</v>
       </c>
       <c r="E253" t="n">
-        <v>3022</v>
+        <v>3033</v>
       </c>
       <c r="F253" t="n">
-        <v>172.8196</v>
+        <v>1</v>
       </c>
       <c r="G253" t="n">
-        <v>3027.333333333333</v>
+        <v>3048.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9577,10 +9397,10 @@
         <v>3022</v>
       </c>
       <c r="F254" t="n">
-        <v>50.7442</v>
+        <v>172.8196</v>
       </c>
       <c r="G254" t="n">
-        <v>3025.666666666667</v>
+        <v>3047.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9600,22 +9420,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="C255" t="n">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="D255" t="n">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="E255" t="n">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="F255" t="n">
-        <v>1</v>
+        <v>50.7442</v>
       </c>
       <c r="G255" t="n">
-        <v>3023.333333333333</v>
+        <v>3047.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9635,22 +9455,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>3015</v>
+        <v>3026</v>
       </c>
       <c r="C256" t="n">
-        <v>3015</v>
+        <v>3026</v>
       </c>
       <c r="D256" t="n">
-        <v>3015</v>
+        <v>3026</v>
       </c>
       <c r="E256" t="n">
-        <v>3015</v>
+        <v>3026</v>
       </c>
       <c r="F256" t="n">
-        <v>336.08</v>
+        <v>1</v>
       </c>
       <c r="G256" t="n">
-        <v>3021</v>
+        <v>3047.283333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9670,22 +9490,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>3028</v>
+        <v>3015</v>
       </c>
       <c r="C257" t="n">
-        <v>3028</v>
+        <v>3015</v>
       </c>
       <c r="D257" t="n">
-        <v>3028</v>
+        <v>3015</v>
       </c>
       <c r="E257" t="n">
-        <v>3028</v>
+        <v>3015</v>
       </c>
       <c r="F257" t="n">
-        <v>184.6776</v>
+        <v>336.08</v>
       </c>
       <c r="G257" t="n">
-        <v>3023</v>
+        <v>3047.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9705,22 +9525,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="C258" t="n">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="D258" t="n">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="E258" t="n">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="F258" t="n">
-        <v>140</v>
+        <v>184.6776</v>
       </c>
       <c r="G258" t="n">
-        <v>3023.333333333333</v>
+        <v>3047.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9752,10 +9572,10 @@
         <v>3027</v>
       </c>
       <c r="F259" t="n">
-        <v>136.4567</v>
+        <v>140</v>
       </c>
       <c r="G259" t="n">
-        <v>3027.333333333333</v>
+        <v>3046.866666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9775,22 +9595,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>3020</v>
+        <v>3027</v>
       </c>
       <c r="C260" t="n">
-        <v>3020</v>
+        <v>3027</v>
       </c>
       <c r="D260" t="n">
-        <v>3020</v>
+        <v>3027</v>
       </c>
       <c r="E260" t="n">
-        <v>3020</v>
+        <v>3027</v>
       </c>
       <c r="F260" t="n">
-        <v>19.3667</v>
+        <v>136.4567</v>
       </c>
       <c r="G260" t="n">
-        <v>3024.666666666667</v>
+        <v>3046.666666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9822,10 +9642,10 @@
         <v>3020</v>
       </c>
       <c r="F261" t="n">
-        <v>34.82</v>
+        <v>19.3667</v>
       </c>
       <c r="G261" t="n">
-        <v>3022.333333333333</v>
+        <v>3046.15</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9857,10 +9677,10 @@
         <v>3020</v>
       </c>
       <c r="F262" t="n">
-        <v>757.3699</v>
+        <v>34.82</v>
       </c>
       <c r="G262" t="n">
-        <v>3020</v>
+        <v>3045.55</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9880,22 +9700,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>3015</v>
+        <v>3020</v>
       </c>
       <c r="C263" t="n">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="D263" t="n">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="E263" t="n">
-        <v>3015</v>
+        <v>3020</v>
       </c>
       <c r="F263" t="n">
-        <v>437.8115686404234</v>
+        <v>757.3699</v>
       </c>
       <c r="G263" t="n">
-        <v>3021</v>
+        <v>3044.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9915,22 +9735,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>3010</v>
+        <v>3015</v>
       </c>
       <c r="C264" t="n">
-        <v>3010</v>
+        <v>3023</v>
       </c>
       <c r="D264" t="n">
-        <v>3010</v>
+        <v>3023</v>
       </c>
       <c r="E264" t="n">
-        <v>3010</v>
+        <v>3015</v>
       </c>
       <c r="F264" t="n">
-        <v>67.1626</v>
+        <v>437.8115686404234</v>
       </c>
       <c r="G264" t="n">
-        <v>3017.666666666667</v>
+        <v>3044.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9962,10 +9782,10 @@
         <v>3010</v>
       </c>
       <c r="F265" t="n">
-        <v>128.7599</v>
+        <v>67.1626</v>
       </c>
       <c r="G265" t="n">
-        <v>3014.333333333333</v>
+        <v>3043.433333333333</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9997,10 +9817,10 @@
         <v>3010</v>
       </c>
       <c r="F266" t="n">
-        <v>325.0775</v>
+        <v>128.7599</v>
       </c>
       <c r="G266" t="n">
-        <v>3010</v>
+        <v>3042.533333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10020,22 +9840,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>3006</v>
+        <v>3010</v>
       </c>
       <c r="C267" t="n">
-        <v>3001</v>
+        <v>3010</v>
       </c>
       <c r="D267" t="n">
-        <v>3006</v>
+        <v>3010</v>
       </c>
       <c r="E267" t="n">
-        <v>3001</v>
+        <v>3010</v>
       </c>
       <c r="F267" t="n">
-        <v>848.4809</v>
+        <v>325.0775</v>
       </c>
       <c r="G267" t="n">
-        <v>3007</v>
+        <v>3041.866666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10055,22 +9875,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>3000</v>
+        <v>3006</v>
       </c>
       <c r="C268" t="n">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D268" t="n">
-        <v>3000</v>
+        <v>3006</v>
       </c>
       <c r="E268" t="n">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F268" t="n">
-        <v>804.2665</v>
+        <v>848.4809</v>
       </c>
       <c r="G268" t="n">
-        <v>3003.666666666667</v>
+        <v>3041.05</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10102,10 +9922,10 @@
         <v>3000</v>
       </c>
       <c r="F269" t="n">
-        <v>700</v>
+        <v>804.2665</v>
       </c>
       <c r="G269" t="n">
-        <v>3000.333333333333</v>
+        <v>3040.05</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10125,22 +9945,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="C270" t="n">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="D270" t="n">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="E270" t="n">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="F270" t="n">
-        <v>34.3444</v>
+        <v>700</v>
       </c>
       <c r="G270" t="n">
-        <v>2999.666666666667</v>
+        <v>3039.05</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10160,22 +9980,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="C271" t="n">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="D271" t="n">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="E271" t="n">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="F271" t="n">
-        <v>240.9515</v>
+        <v>34.3444</v>
       </c>
       <c r="G271" t="n">
-        <v>2998</v>
+        <v>3038</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10195,22 +10015,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="C272" t="n">
         <v>2995</v>
       </c>
       <c r="D272" t="n">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="E272" t="n">
         <v>2995</v>
       </c>
       <c r="F272" t="n">
-        <v>2349.5612</v>
+        <v>240.9515</v>
       </c>
       <c r="G272" t="n">
-        <v>2996.333333333333</v>
+        <v>3036.866666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10225,6 +10045,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2995</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2995</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2349.5612</v>
+      </c>
+      <c r="G273" t="n">
+        <v>3035.566666666667</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-31 BackTest LINK.xlsx
+++ b/BackTest/2019-10-31 BackTest LINK.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>37.2086</v>
       </c>
       <c r="G2" t="n">
+        <v>2991.466666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>3019.716666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>50.1056</v>
       </c>
       <c r="G3" t="n">
+        <v>2991.466666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>3019.15</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>496.8496</v>
       </c>
       <c r="G4" t="n">
+        <v>2990.066666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>3018.433333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>210.2962</v>
       </c>
       <c r="G5" t="n">
+        <v>2989.066666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>3017.633333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>127.4808</v>
       </c>
       <c r="G6" t="n">
+        <v>2988.333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>3016.8</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>4774.9477</v>
       </c>
       <c r="G7" t="n">
+        <v>2986.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>3015.833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>60.2516</v>
       </c>
       <c r="G8" t="n">
+        <v>2985.6</v>
+      </c>
+      <c r="H8" t="n">
         <v>3014.75</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>42.5575</v>
       </c>
       <c r="G9" t="n">
+        <v>2984.133333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>3013.566666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2125.8677</v>
       </c>
       <c r="G10" t="n">
+        <v>2982.8</v>
+      </c>
+      <c r="H10" t="n">
         <v>3012.45</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>283.5219</v>
       </c>
       <c r="G11" t="n">
+        <v>2981.066666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>3011.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>300.7746</v>
       </c>
       <c r="G12" t="n">
+        <v>2978.466666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>3009.85</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>224.3642</v>
       </c>
       <c r="G13" t="n">
+        <v>2976</v>
+      </c>
+      <c r="H13" t="n">
         <v>3008.433333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>5578.0901</v>
       </c>
       <c r="G14" t="n">
+        <v>2973</v>
+      </c>
+      <c r="H14" t="n">
         <v>3007</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2705.8528</v>
       </c>
       <c r="G15" t="n">
+        <v>2970.333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>3005.65</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>120.0101</v>
       </c>
       <c r="G16" t="n">
+        <v>2968.066666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>3004.233333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>342.5248546896086</v>
       </c>
       <c r="G17" t="n">
+        <v>2966.133333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>3002.85</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>580.6268</v>
       </c>
       <c r="G18" t="n">
+        <v>2963.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>3001.216666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>980.1224999999999</v>
       </c>
       <c r="G19" t="n">
+        <v>2961.8</v>
+      </c>
+      <c r="H19" t="n">
         <v>2999.55</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>2960.133333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>2997.883333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>135.1675</v>
       </c>
       <c r="G21" t="n">
+        <v>2958.333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>2996.166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,25 @@
         <v>281.3064</v>
       </c>
       <c r="G22" t="n">
+        <v>2957.466666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>2994.55</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2951</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1255,29 @@
         <v>22.1683</v>
       </c>
       <c r="G23" t="n">
+        <v>2956.466666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>2992.8</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2957</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1301,29 @@
         <v>126.4109</v>
       </c>
       <c r="G24" t="n">
+        <v>2955.466666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>2991.116666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2955</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1347,29 @@
         <v>519.1712</v>
       </c>
       <c r="G25" t="n">
+        <v>2954.4</v>
+      </c>
+      <c r="H25" t="n">
         <v>2989.366666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2953</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1393,29 @@
         <v>594.1898</v>
       </c>
       <c r="G26" t="n">
+        <v>2953.666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>2987.75</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2952</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1439,29 @@
         <v>354.5219</v>
       </c>
       <c r="G27" t="n">
+        <v>2953.333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>2986.116666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2950</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1485,29 @@
         <v>260.9796</v>
       </c>
       <c r="G28" t="n">
+        <v>2953.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>2984.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2949</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1531,27 @@
         <v>22</v>
       </c>
       <c r="G29" t="n">
+        <v>2953.2</v>
+      </c>
+      <c r="H29" t="n">
         <v>2982.95</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1575,29 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
+        <v>2952.8</v>
+      </c>
+      <c r="H30" t="n">
         <v>2981.383333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2948</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1621,27 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
+        <v>2951.933333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>2979.783333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,22 +1665,27 @@
         <v>124.8663</v>
       </c>
       <c r="G32" t="n">
+        <v>2950.666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>2978.416666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2946</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1537,24 +1709,27 @@
         <v>898.0008</v>
       </c>
       <c r="G33" t="n">
+        <v>2950.066666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>2977.15</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,26 +1753,27 @@
         <v>1357.5326</v>
       </c>
       <c r="G34" t="n">
+        <v>2949.466666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>2975.916666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2944</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,24 +1797,27 @@
         <v>221.6225</v>
       </c>
       <c r="G35" t="n">
+        <v>2947.533333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>2974.416666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1662,26 +1841,27 @@
         <v>48.7746</v>
       </c>
       <c r="G36" t="n">
+        <v>2945.866666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>2973.083333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2924</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1705,26 +1885,27 @@
         <v>885.0014</v>
       </c>
       <c r="G37" t="n">
+        <v>2943.933333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>2971.816666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2926</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,26 +1929,29 @@
         <v>180.1862</v>
       </c>
       <c r="G38" t="n">
+        <v>2943.066666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>2970.55</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>2928</v>
       </c>
-      <c r="K38" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1791,24 +1975,29 @@
         <v>1320.5333</v>
       </c>
       <c r="G39" t="n">
+        <v>2943.2</v>
+      </c>
+      <c r="H39" t="n">
         <v>2969.7</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+        <v>2942</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1832,24 +2021,29 @@
         <v>75.8077</v>
       </c>
       <c r="G40" t="n">
+        <v>2943.4</v>
+      </c>
+      <c r="H40" t="n">
         <v>2968.916666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+        <v>2955</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,24 +2067,29 @@
         <v>127.2161</v>
       </c>
       <c r="G41" t="n">
+        <v>2942.733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>2967.916666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+        <v>2955</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1914,24 +2113,29 @@
         <v>129.9999</v>
       </c>
       <c r="G42" t="n">
+        <v>2943.2</v>
+      </c>
+      <c r="H42" t="n">
         <v>2967.033333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+        <v>2940</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1955,24 +2159,29 @@
         <v>820.0174</v>
       </c>
       <c r="G43" t="n">
+        <v>2944.733333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>2966.433333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+        <v>2956</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,24 +2205,27 @@
         <v>942</v>
       </c>
       <c r="G44" t="n">
+        <v>2946.533333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>2966.066666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2037,24 +2249,27 @@
         <v>20</v>
       </c>
       <c r="G45" t="n">
+        <v>2948.333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>2965.716666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,24 +2293,27 @@
         <v>119.6967</v>
       </c>
       <c r="G46" t="n">
+        <v>2949.133333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>2965.1</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2119,24 +2337,27 @@
         <v>157.8766386554622</v>
       </c>
       <c r="G47" t="n">
+        <v>2951.133333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>2964.85</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2160,24 +2381,27 @@
         <v>912.9642613445378</v>
       </c>
       <c r="G48" t="n">
+        <v>2953.4</v>
+      </c>
+      <c r="H48" t="n">
         <v>2964.683333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2201,24 +2425,27 @@
         <v>16.5712</v>
       </c>
       <c r="G49" t="n">
+        <v>2955.666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>2964.25</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,24 +2469,27 @@
         <v>3.0663</v>
       </c>
       <c r="G50" t="n">
+        <v>2959.266666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>2964</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2283,24 +2513,27 @@
         <v>8</v>
       </c>
       <c r="G51" t="n">
+        <v>2963.866666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>2964.1</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2324,25 +2557,28 @@
         <v>2</v>
       </c>
       <c r="G52" t="n">
+        <v>2968.333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>2964.133333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>2946</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1.01163272233537</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2365,18 +2601,27 @@
         <v>1475</v>
       </c>
       <c r="G53" t="n">
+        <v>2970.533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>2963.916666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2400,18 +2645,27 @@
         <v>1002.9077</v>
       </c>
       <c r="G54" t="n">
+        <v>2971.866666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>2963.666666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2435,18 +2689,27 @@
         <v>3314.195</v>
       </c>
       <c r="G55" t="n">
+        <v>2973.8</v>
+      </c>
+      <c r="H55" t="n">
         <v>2963.6</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,18 +2733,27 @@
         <v>1000</v>
       </c>
       <c r="G56" t="n">
+        <v>2975.133333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>2963.15</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2505,18 +2777,29 @@
         <v>100</v>
       </c>
       <c r="G57" t="n">
+        <v>2976.333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>2962.833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2960</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2540,18 +2823,29 @@
         <v>143.1966</v>
       </c>
       <c r="G58" t="n">
+        <v>2977</v>
+      </c>
+      <c r="H58" t="n">
         <v>2962.733333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2974</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2575,18 +2869,29 @@
         <v>3465.8652</v>
       </c>
       <c r="G59" t="n">
+        <v>2977.4</v>
+      </c>
+      <c r="H59" t="n">
         <v>2962.533333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2981</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2610,18 +2915,29 @@
         <v>483.9993</v>
       </c>
       <c r="G60" t="n">
+        <v>2977.866666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>2962.333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2981</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2645,18 +2961,29 @@
         <v>5144.4945</v>
       </c>
       <c r="G61" t="n">
+        <v>2978.6</v>
+      </c>
+      <c r="H61" t="n">
         <v>2961.933333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2981</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,18 +3007,27 @@
         <v>513.6271</v>
       </c>
       <c r="G62" t="n">
+        <v>2978.866666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>2961.7</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2715,18 +3051,27 @@
         <v>32.1974</v>
       </c>
       <c r="G63" t="n">
+        <v>2979.933333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>2961.8</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2750,18 +3095,27 @@
         <v>116.5962</v>
       </c>
       <c r="G64" t="n">
+        <v>2981.133333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>2962.016666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2785,18 +3139,27 @@
         <v>500.5068</v>
       </c>
       <c r="G65" t="n">
+        <v>2981.6</v>
+      </c>
+      <c r="H65" t="n">
         <v>2962.133333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2820,18 +3183,27 @@
         <v>1.000334448160535</v>
       </c>
       <c r="G66" t="n">
+        <v>2981.266666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>2962.333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2855,18 +3227,27 @@
         <v>203.6</v>
       </c>
       <c r="G67" t="n">
+        <v>2980.333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>2962.516666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,18 +3271,27 @@
         <v>432</v>
       </c>
       <c r="G68" t="n">
+        <v>2981.133333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>2962.8</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2925,18 +3315,27 @@
         <v>12.99973641231593</v>
       </c>
       <c r="G69" t="n">
+        <v>2982</v>
+      </c>
+      <c r="H69" t="n">
         <v>2963.133333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2960,18 +3359,27 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
+        <v>2982.4</v>
+      </c>
+      <c r="H70" t="n">
         <v>2963.5</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2995,18 +3403,27 @@
         <v>695.0127</v>
       </c>
       <c r="G71" t="n">
+        <v>2984.333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>2963.966666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3030,18 +3447,27 @@
         <v>598.1564</v>
       </c>
       <c r="G72" t="n">
+        <v>2985.333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>2964.55</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3065,18 +3491,27 @@
         <v>119.2955</v>
       </c>
       <c r="G73" t="n">
+        <v>2985.866666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>2965.2</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,18 +3535,27 @@
         <v>150</v>
       </c>
       <c r="G74" t="n">
+        <v>2986.4</v>
+      </c>
+      <c r="H74" t="n">
         <v>2965.883333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3135,18 +3579,27 @@
         <v>1674.2373</v>
       </c>
       <c r="G75" t="n">
+        <v>2986.866666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>2966.466666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3170,18 +3623,27 @@
         <v>81.3466</v>
       </c>
       <c r="G76" t="n">
+        <v>2987.733333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>2966.85</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3205,18 +3667,27 @@
         <v>1338.7675</v>
       </c>
       <c r="G77" t="n">
+        <v>2988.4</v>
+      </c>
+      <c r="H77" t="n">
         <v>2967.266666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,18 +3711,27 @@
         <v>13.0107</v>
       </c>
       <c r="G78" t="n">
+        <v>2988.066666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>2967.866666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3275,18 +3755,27 @@
         <v>1600</v>
       </c>
       <c r="G79" t="n">
+        <v>2987.6</v>
+      </c>
+      <c r="H79" t="n">
         <v>2968.466666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,18 +3799,29 @@
         <v>175.5331</v>
       </c>
       <c r="G80" t="n">
+        <v>2987.333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>2968.933333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2989</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3345,18 +3845,29 @@
         <v>113.0266</v>
       </c>
       <c r="G81" t="n">
+        <v>2986.733333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>2969.433333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2981</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,18 +3891,29 @@
         <v>1295.2489</v>
       </c>
       <c r="G82" t="n">
+        <v>2986.666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>2969.816666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2981</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3415,18 +3937,29 @@
         <v>231.5217</v>
       </c>
       <c r="G83" t="n">
+        <v>2986.333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>2970.266666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2980</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,18 +3983,29 @@
         <v>323.0493</v>
       </c>
       <c r="G84" t="n">
+        <v>2985.8</v>
+      </c>
+      <c r="H84" t="n">
         <v>2970.716666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2982</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3485,18 +4029,29 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
+        <v>2985.466666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>2971.266666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2980</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,18 +4075,29 @@
         <v>121</v>
       </c>
       <c r="G86" t="n">
+        <v>2984.8</v>
+      </c>
+      <c r="H86" t="n">
         <v>2971.75</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2985</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3555,18 +4121,29 @@
         <v>7.3298</v>
       </c>
       <c r="G87" t="n">
+        <v>2984.066666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>2972.233333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2979</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3590,18 +4167,29 @@
         <v>2</v>
       </c>
       <c r="G88" t="n">
+        <v>2983.2</v>
+      </c>
+      <c r="H88" t="n">
         <v>2972.7</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2978</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3625,18 +4213,29 @@
         <v>2255</v>
       </c>
       <c r="G89" t="n">
+        <v>2981.333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>2972.916666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2976</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,18 +4259,29 @@
         <v>257.67</v>
       </c>
       <c r="G90" t="n">
+        <v>2979.666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>2973.183333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2961</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3695,18 +4305,29 @@
         <v>200</v>
       </c>
       <c r="G91" t="n">
+        <v>2979.2</v>
+      </c>
+      <c r="H91" t="n">
         <v>2973.666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2963</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3730,18 +4351,29 @@
         <v>485.9681</v>
       </c>
       <c r="G92" t="n">
+        <v>2979.133333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>2974.383333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2975</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3765,18 +4397,27 @@
         <v>4</v>
       </c>
       <c r="G93" t="n">
+        <v>2979</v>
+      </c>
+      <c r="H93" t="n">
         <v>2975.1</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,18 +4441,27 @@
         <v>189.5443</v>
       </c>
       <c r="G94" t="n">
+        <v>2978.866666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>2975.816666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3835,18 +4485,27 @@
         <v>1043.316376812563</v>
       </c>
       <c r="G95" t="n">
+        <v>2979.666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>2976.966666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,18 +4529,27 @@
         <v>23.1858</v>
       </c>
       <c r="G96" t="n">
+        <v>2980.466666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>2978.083333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3905,18 +4573,27 @@
         <v>33.42245989304813</v>
       </c>
       <c r="G97" t="n">
+        <v>2981.266666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>2979.15</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3940,18 +4617,27 @@
         <v>97.4902</v>
       </c>
       <c r="G98" t="n">
+        <v>2981.066666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>2979.766666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3975,18 +4661,27 @@
         <v>66</v>
       </c>
       <c r="G99" t="n">
+        <v>2980.866666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>2980.133333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,18 +4705,27 @@
         <v>66</v>
       </c>
       <c r="G100" t="n">
+        <v>2981.333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>2980.75</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4045,18 +4749,27 @@
         <v>41.084</v>
       </c>
       <c r="G101" t="n">
+        <v>2982.2</v>
+      </c>
+      <c r="H101" t="n">
         <v>2981.616666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4080,18 +4793,27 @@
         <v>179.4586333333333</v>
       </c>
       <c r="G102" t="n">
+        <v>2983.666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>2982.35</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4115,18 +4837,27 @@
         <v>159.7392666666667</v>
       </c>
       <c r="G103" t="n">
+        <v>2985.266666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>2982.833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,18 +4881,27 @@
         <v>990.1725</v>
       </c>
       <c r="G104" t="n">
+        <v>2987.866666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>2983.25</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4185,18 +4925,27 @@
         <v>51.4649</v>
       </c>
       <c r="G105" t="n">
+        <v>2990.533333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>2983.733333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,18 +4969,27 @@
         <v>7.5236</v>
       </c>
       <c r="G106" t="n">
+        <v>2992.4</v>
+      </c>
+      <c r="H106" t="n">
         <v>2984.483333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4255,18 +5013,27 @@
         <v>29.0294</v>
       </c>
       <c r="G107" t="n">
+        <v>2993.4</v>
+      </c>
+      <c r="H107" t="n">
         <v>2984.95</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,18 +5057,27 @@
         <v>182.993</v>
       </c>
       <c r="G108" t="n">
+        <v>2994.533333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>2985.383333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4325,18 +5101,27 @@
         <v>67.00700000000001</v>
       </c>
       <c r="G109" t="n">
+        <v>2995.666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>2985.816666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4360,18 +5145,27 @@
         <v>499.1127568106313</v>
       </c>
       <c r="G110" t="n">
+        <v>2996.8</v>
+      </c>
+      <c r="H110" t="n">
         <v>2986.35</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4395,18 +5189,27 @@
         <v>1010.6477</v>
       </c>
       <c r="G111" t="n">
+        <v>2997.866666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>2986.583333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,18 +5233,27 @@
         <v>15.2049</v>
       </c>
       <c r="G112" t="n">
+        <v>2999</v>
+      </c>
+      <c r="H112" t="n">
         <v>2986.816666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4465,18 +5277,27 @@
         <v>411.5192</v>
       </c>
       <c r="G113" t="n">
+        <v>3001.6</v>
+      </c>
+      <c r="H113" t="n">
         <v>2987.533333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,18 +5321,27 @@
         <v>500</v>
       </c>
       <c r="G114" t="n">
+        <v>3004.933333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>2988.4</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4535,18 +5365,27 @@
         <v>48.3838</v>
       </c>
       <c r="G115" t="n">
+        <v>3006</v>
+      </c>
+      <c r="H115" t="n">
         <v>2988.8</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,18 +5409,27 @@
         <v>338</v>
       </c>
       <c r="G116" t="n">
+        <v>3007.266666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>2989.65</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4605,18 +5453,27 @@
         <v>1132.1464</v>
       </c>
       <c r="G117" t="n">
+        <v>3008.533333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>2990.4</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,18 +5497,27 @@
         <v>1508.1411</v>
       </c>
       <c r="G118" t="n">
+        <v>3009.8</v>
+      </c>
+      <c r="H118" t="n">
         <v>2991.033333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4675,18 +5541,27 @@
         <v>71</v>
       </c>
       <c r="G119" t="n">
+        <v>3012</v>
+      </c>
+      <c r="H119" t="n">
         <v>2991.9</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,18 +5585,27 @@
         <v>606.0823</v>
       </c>
       <c r="G120" t="n">
+        <v>3014</v>
+      </c>
+      <c r="H120" t="n">
         <v>2992.766666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4745,18 +5629,27 @@
         <v>325.7273</v>
       </c>
       <c r="G121" t="n">
+        <v>3016.066666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>2993.85</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,18 +5673,27 @@
         <v>447.477</v>
       </c>
       <c r="G122" t="n">
+        <v>3018.133333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>2994.766666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4815,18 +5717,27 @@
         <v>602.5623000000001</v>
       </c>
       <c r="G123" t="n">
+        <v>3020.066666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>2995.416666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4850,18 +5761,27 @@
         <v>569.9779</v>
       </c>
       <c r="G124" t="n">
+        <v>3022</v>
+      </c>
+      <c r="H124" t="n">
         <v>2996.033333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,18 +5805,27 @@
         <v>33.025</v>
       </c>
       <c r="G125" t="n">
+        <v>3023.2</v>
+      </c>
+      <c r="H125" t="n">
         <v>2996.75</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4920,18 +5849,27 @@
         <v>103</v>
       </c>
       <c r="G126" t="n">
+        <v>3023.133333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>2997.05</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4955,18 +5893,27 @@
         <v>606.1478</v>
       </c>
       <c r="G127" t="n">
+        <v>3023.066666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>2997.5</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,18 +5937,27 @@
         <v>21.2432</v>
       </c>
       <c r="G128" t="n">
+        <v>3022.066666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>2997.766666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5025,18 +5981,27 @@
         <v>44.3148</v>
       </c>
       <c r="G129" t="n">
+        <v>3020.333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>2997.983333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5060,18 +6025,27 @@
         <v>137.9999</v>
       </c>
       <c r="G130" t="n">
+        <v>3019.933333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>2998.183333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5095,18 +6069,27 @@
         <v>99.31740000000001</v>
       </c>
       <c r="G131" t="n">
+        <v>3019.2</v>
+      </c>
+      <c r="H131" t="n">
         <v>2998.366666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,18 +6113,27 @@
         <v>285.8156</v>
       </c>
       <c r="G132" t="n">
+        <v>3017.333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>2998.4</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5165,18 +6157,29 @@
         <v>3.303600925008259</v>
       </c>
       <c r="G133" t="n">
+        <v>3017.866666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>2999.033333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2991</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5200,18 +6203,27 @@
         <v>611.4078</v>
       </c>
       <c r="G134" t="n">
+        <v>3017.866666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>2999.766666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5235,18 +6247,27 @@
         <v>362.6771</v>
       </c>
       <c r="G135" t="n">
+        <v>3017.866666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>3000.516666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5270,18 +6291,27 @@
         <v>16.4853</v>
       </c>
       <c r="G136" t="n">
+        <v>3017.8</v>
+      </c>
+      <c r="H136" t="n">
         <v>3001.366666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5305,18 +6335,27 @@
         <v>9.4298</v>
       </c>
       <c r="G137" t="n">
+        <v>3017.733333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>3002.1</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,18 +6379,27 @@
         <v>332.6464</v>
       </c>
       <c r="G138" t="n">
+        <v>3018.4</v>
+      </c>
+      <c r="H138" t="n">
         <v>3003</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5375,18 +6423,27 @@
         <v>31.325</v>
       </c>
       <c r="G139" t="n">
+        <v>3018.4</v>
+      </c>
+      <c r="H139" t="n">
         <v>3003.733333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5410,18 +6467,27 @@
         <v>12.9421</v>
       </c>
       <c r="G140" t="n">
+        <v>3017.933333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>3004.4</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5445,18 +6511,27 @@
         <v>1000</v>
       </c>
       <c r="G141" t="n">
+        <v>3018.8</v>
+      </c>
+      <c r="H141" t="n">
         <v>3005.066666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5480,18 +6555,27 @@
         <v>500</v>
       </c>
       <c r="G142" t="n">
+        <v>3019.666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>3005.75</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5515,18 +6599,27 @@
         <v>256.5452</v>
       </c>
       <c r="G143" t="n">
+        <v>3020.866666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>3006.4</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,18 +6643,27 @@
         <v>325.4548</v>
       </c>
       <c r="G144" t="n">
+        <v>3022.2</v>
+      </c>
+      <c r="H144" t="n">
         <v>3007.083333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5585,18 +6687,27 @@
         <v>1992.9955</v>
       </c>
       <c r="G145" t="n">
+        <v>3023.4</v>
+      </c>
+      <c r="H145" t="n">
         <v>3007.666666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,18 +6731,27 @@
         <v>1007.0045</v>
       </c>
       <c r="G146" t="n">
+        <v>3024.733333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>3008.35</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5655,18 +6775,27 @@
         <v>1000</v>
       </c>
       <c r="G147" t="n">
+        <v>3027</v>
+      </c>
+      <c r="H147" t="n">
         <v>3009.133333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5690,18 +6819,27 @@
         <v>28.8799</v>
       </c>
       <c r="G148" t="n">
+        <v>3027.2</v>
+      </c>
+      <c r="H148" t="n">
         <v>3010.033333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5725,18 +6863,27 @@
         <v>971.6464</v>
       </c>
       <c r="G149" t="n">
+        <v>3027</v>
+      </c>
+      <c r="H149" t="n">
         <v>3011.183333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5760,18 +6907,27 @@
         <v>136.8712</v>
       </c>
       <c r="G150" t="n">
+        <v>3027.266666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>3012.416666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5795,18 +6951,27 @@
         <v>4.6534</v>
       </c>
       <c r="G151" t="n">
+        <v>3027.533333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>3013.45</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5830,18 +6995,27 @@
         <v>977.9432</v>
       </c>
       <c r="G152" t="n">
+        <v>3026.4</v>
+      </c>
+      <c r="H152" t="n">
         <v>3013.916666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5865,18 +7039,27 @@
         <v>59.1355</v>
       </c>
       <c r="G153" t="n">
+        <v>3025.133333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>3014.533333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5900,18 +7083,27 @@
         <v>56.9041</v>
       </c>
       <c r="G154" t="n">
+        <v>3024.533333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>3015.15</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5935,18 +7127,27 @@
         <v>172.413</v>
       </c>
       <c r="G155" t="n">
+        <v>3023.8</v>
+      </c>
+      <c r="H155" t="n">
         <v>3015.433333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5970,18 +7171,27 @@
         <v>10.2208</v>
       </c>
       <c r="G156" t="n">
+        <v>3023</v>
+      </c>
+      <c r="H156" t="n">
         <v>3015.7</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6005,18 +7215,27 @@
         <v>75.8301</v>
       </c>
       <c r="G157" t="n">
+        <v>3022.2</v>
+      </c>
+      <c r="H157" t="n">
         <v>3015.983333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6040,18 +7259,27 @@
         <v>65.3617</v>
       </c>
       <c r="G158" t="n">
+        <v>3021.133333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>3016.416666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6075,18 +7303,27 @@
         <v>498</v>
       </c>
       <c r="G159" t="n">
+        <v>3020.8</v>
+      </c>
+      <c r="H159" t="n">
         <v>3017.066666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6110,18 +7347,27 @@
         <v>0.75</v>
       </c>
       <c r="G160" t="n">
+        <v>3020.666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>3017.5</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6145,18 +7391,27 @@
         <v>50.8873</v>
       </c>
       <c r="G161" t="n">
+        <v>3021.8</v>
+      </c>
+      <c r="H161" t="n">
         <v>3018.25</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6180,18 +7435,27 @@
         <v>1353.2571</v>
       </c>
       <c r="G162" t="n">
+        <v>3023.133333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>3019</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6215,18 +7479,27 @@
         <v>279.6547</v>
       </c>
       <c r="G163" t="n">
+        <v>3024.2</v>
+      </c>
+      <c r="H163" t="n">
         <v>3019.766666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6250,18 +7523,27 @@
         <v>99.87893700787401</v>
       </c>
       <c r="G164" t="n">
+        <v>3025.4</v>
+      </c>
+      <c r="H164" t="n">
         <v>3020.566666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6285,18 +7567,27 @@
         <v>38.8</v>
       </c>
       <c r="G165" t="n">
+        <v>3026.133333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>3021.316666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6320,18 +7611,27 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
+        <v>3026.933333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>3022.083333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6355,18 +7655,27 @@
         <v>3124.6264</v>
       </c>
       <c r="G167" t="n">
+        <v>3029.2</v>
+      </c>
+      <c r="H167" t="n">
         <v>3022.866666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6390,18 +7699,27 @@
         <v>7.2131147540983e-05</v>
       </c>
       <c r="G168" t="n">
+        <v>3030.933333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>3023.633333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6425,18 +7743,27 @@
         <v>320.6573</v>
       </c>
       <c r="G169" t="n">
+        <v>3032.6</v>
+      </c>
+      <c r="H169" t="n">
         <v>3024.383333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6460,18 +7787,27 @@
         <v>50</v>
       </c>
       <c r="G170" t="n">
+        <v>3035.4</v>
+      </c>
+      <c r="H170" t="n">
         <v>3025.083333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6495,18 +7831,27 @@
         <v>23.9486</v>
       </c>
       <c r="G171" t="n">
+        <v>3038.4</v>
+      </c>
+      <c r="H171" t="n">
         <v>3025.833333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6530,18 +7875,27 @@
         <v>583.8631</v>
       </c>
       <c r="G172" t="n">
+        <v>3040.8</v>
+      </c>
+      <c r="H172" t="n">
         <v>3026.433333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6565,18 +7919,27 @@
         <v>58.3863</v>
       </c>
       <c r="G173" t="n">
+        <v>3043.8</v>
+      </c>
+      <c r="H173" t="n">
         <v>3026.966666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6600,18 +7963,27 @@
         <v>300</v>
       </c>
       <c r="G174" t="n">
+        <v>3046.6</v>
+      </c>
+      <c r="H174" t="n">
         <v>3027.483333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6635,18 +8007,27 @@
         <v>2.6</v>
       </c>
       <c r="G175" t="n">
+        <v>3049.266666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>3028.316666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,18 +8051,27 @@
         <v>40</v>
       </c>
       <c r="G176" t="n">
+        <v>3050.666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>3029.1</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6705,18 +8095,27 @@
         <v>70</v>
       </c>
       <c r="G177" t="n">
+        <v>3051</v>
+      </c>
+      <c r="H177" t="n">
         <v>3029.616666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6740,18 +8139,27 @@
         <v>100</v>
       </c>
       <c r="G178" t="n">
+        <v>3051.8</v>
+      </c>
+      <c r="H178" t="n">
         <v>3030.266666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6775,18 +8183,27 @@
         <v>0.6</v>
       </c>
       <c r="G179" t="n">
+        <v>3052.533333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>3030.7</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6810,18 +8227,27 @@
         <v>80</v>
       </c>
       <c r="G180" t="n">
+        <v>3053.266666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>3031.133333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6845,18 +8271,27 @@
         <v>0.2</v>
       </c>
       <c r="G181" t="n">
+        <v>3053.933333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>3031.55</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6880,19 +8315,28 @@
         <v>261.0999</v>
       </c>
       <c r="G182" t="n">
+        <v>3053.733333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>3031.766666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
+      <c r="L182" t="n">
+        <v>2951</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1.027531345306676</v>
       </c>
     </row>
     <row r="183">
@@ -6915,18 +8359,21 @@
         <v>25.655</v>
       </c>
       <c r="G183" t="n">
+        <v>3053.533333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>3032</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6950,18 +8397,21 @@
         <v>4.1203</v>
       </c>
       <c r="G184" t="n">
+        <v>3053.4</v>
+      </c>
+      <c r="H184" t="n">
         <v>3032.233333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6985,18 +8435,21 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
+        <v>3053.333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>3032.616666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7020,18 +8473,21 @@
         <v>40.0794</v>
       </c>
       <c r="G186" t="n">
+        <v>3053.133333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>3033.333333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7055,18 +8511,21 @@
         <v>564.658</v>
       </c>
       <c r="G187" t="n">
+        <v>3052.866666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>3033.883333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7090,18 +8549,21 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
+        <v>3052.933333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>3034.683333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7125,18 +8587,21 @@
         <v>170.9816642436149</v>
       </c>
       <c r="G189" t="n">
+        <v>3052.733333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>3035.583333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7160,18 +8625,21 @@
         <v>1432.767</v>
       </c>
       <c r="G190" t="n">
+        <v>3052.333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>3036.416666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7195,18 +8663,21 @@
         <v>0.3277</v>
       </c>
       <c r="G191" t="n">
+        <v>3051.866666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>3037.266666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7230,18 +8701,21 @@
         <v>214.2053</v>
       </c>
       <c r="G192" t="n">
+        <v>3051.4</v>
+      </c>
+      <c r="H192" t="n">
         <v>3038.133333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7265,18 +8739,21 @@
         <v>177.9847</v>
       </c>
       <c r="G193" t="n">
+        <v>3050.4</v>
+      </c>
+      <c r="H193" t="n">
         <v>3038.4</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7300,18 +8777,21 @@
         <v>1236.6736</v>
       </c>
       <c r="G194" t="n">
+        <v>3049.133333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>3038.516666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7335,18 +8815,21 @@
         <v>230.2292</v>
       </c>
       <c r="G195" t="n">
+        <v>3047.866666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>3038.633333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7370,18 +8853,21 @@
         <v>226</v>
       </c>
       <c r="G196" t="n">
+        <v>3046.533333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>3038.733333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7405,18 +8891,21 @@
         <v>3114.8703</v>
       </c>
       <c r="G197" t="n">
+        <v>3045.133333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>3038.616666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7440,18 +8929,21 @@
         <v>1874.9097</v>
       </c>
       <c r="G198" t="n">
+        <v>3043.866666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>3038.366666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7475,18 +8967,21 @@
         <v>300.3011</v>
       </c>
       <c r="G199" t="n">
+        <v>3043.466666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>3038.5</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7510,18 +9005,21 @@
         <v>165.6976</v>
       </c>
       <c r="G200" t="n">
+        <v>3042.666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>3038.8</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7545,18 +9043,21 @@
         <v>15.7564</v>
       </c>
       <c r="G201" t="n">
+        <v>3042.666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>3039.3</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7580,18 +9081,21 @@
         <v>752.282</v>
       </c>
       <c r="G202" t="n">
+        <v>3043.666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>3039.883333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7615,18 +9119,21 @@
         <v>20.3394</v>
       </c>
       <c r="G203" t="n">
+        <v>3044.2</v>
+      </c>
+      <c r="H203" t="n">
         <v>3040.516666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7650,18 +9157,21 @@
         <v>14</v>
       </c>
       <c r="G204" t="n">
+        <v>3044.466666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>3041.15</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7685,18 +9195,21 @@
         <v>1245.8509</v>
       </c>
       <c r="G205" t="n">
+        <v>3045.133333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>3041.85</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7720,18 +9233,21 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
+        <v>3046</v>
+      </c>
+      <c r="H206" t="n">
         <v>3042.583333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7755,18 +9271,21 @@
         <v>176.224</v>
       </c>
       <c r="G207" t="n">
+        <v>3046.466666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>3043</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7790,18 +9309,21 @@
         <v>1196.9793</v>
       </c>
       <c r="G208" t="n">
+        <v>3046.933333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>3043.333333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7825,18 +9347,21 @@
         <v>80.50409999999999</v>
       </c>
       <c r="G209" t="n">
+        <v>3048.266666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>3043.833333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7860,18 +9385,21 @@
         <v>17.5354</v>
       </c>
       <c r="G210" t="n">
+        <v>3049.6</v>
+      </c>
+      <c r="H210" t="n">
         <v>3044.216666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7895,18 +9423,21 @@
         <v>81.504</v>
       </c>
       <c r="G211" t="n">
+        <v>3051.133333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>3044.633333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7930,18 +9461,21 @@
         <v>1</v>
       </c>
       <c r="G212" t="n">
+        <v>3053.6</v>
+      </c>
+      <c r="H212" t="n">
         <v>3045.416666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7965,18 +9499,21 @@
         <v>310</v>
       </c>
       <c r="G213" t="n">
+        <v>3056.6</v>
+      </c>
+      <c r="H213" t="n">
         <v>3046.233333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8000,18 +9537,21 @@
         <v>116.8469</v>
       </c>
       <c r="G214" t="n">
+        <v>3058.733333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>3047.05</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8035,18 +9575,21 @@
         <v>2102.5571</v>
       </c>
       <c r="G215" t="n">
+        <v>3061.266666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>3048.166666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8070,18 +9613,21 @@
         <v>2181.892975292588</v>
       </c>
       <c r="G216" t="n">
+        <v>3063</v>
+      </c>
+      <c r="H216" t="n">
         <v>3049.3</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8105,18 +9651,21 @@
         <v>143</v>
       </c>
       <c r="G217" t="n">
+        <v>3064.466666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>3050.45</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8140,18 +9689,21 @@
         <v>0.9983755685510072</v>
       </c>
       <c r="G218" t="n">
+        <v>3065.733333333333</v>
+      </c>
+      <c r="H218" t="n">
         <v>3051.666666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8175,18 +9727,21 @@
         <v>278.4896</v>
       </c>
       <c r="G219" t="n">
+        <v>3067</v>
+      </c>
+      <c r="H219" t="n">
         <v>3052.7</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8210,18 +9765,21 @@
         <v>599.0001</v>
       </c>
       <c r="G220" t="n">
+        <v>3067.533333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>3053.566666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8245,18 +9803,21 @@
         <v>126.9454</v>
       </c>
       <c r="G221" t="n">
+        <v>3067.933333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>3054.116666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8280,18 +9841,21 @@
         <v>628.4965</v>
       </c>
       <c r="G222" t="n">
+        <v>3069.2</v>
+      </c>
+      <c r="H222" t="n">
         <v>3054.516666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8315,18 +9879,21 @@
         <v>1917.651040988939</v>
       </c>
       <c r="G223" t="n">
+        <v>3070.8</v>
+      </c>
+      <c r="H223" t="n">
         <v>3054.983333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8350,18 +9917,21 @@
         <v>3456.780417078725</v>
       </c>
       <c r="G224" t="n">
+        <v>3071.333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>3055.316666666667</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8385,18 +9955,21 @@
         <v>2</v>
       </c>
       <c r="G225" t="n">
+        <v>3071.733333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>3055.616666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8420,18 +9993,21 @@
         <v>1</v>
       </c>
       <c r="G226" t="n">
+        <v>3072.466666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>3056.016666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,18 +10031,21 @@
         <v>97.4581</v>
       </c>
       <c r="G227" t="n">
+        <v>3073.133333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>3056.4</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8490,18 +10069,21 @@
         <v>2</v>
       </c>
       <c r="G228" t="n">
+        <v>3072.533333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>3056.633333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8525,18 +10107,21 @@
         <v>2</v>
       </c>
       <c r="G229" t="n">
+        <v>3071.8</v>
+      </c>
+      <c r="H229" t="n">
         <v>3056.85</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8560,18 +10145,21 @@
         <v>2</v>
       </c>
       <c r="G230" t="n">
+        <v>3071.066666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>3057.083333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8595,18 +10183,21 @@
         <v>69.62860000000001</v>
       </c>
       <c r="G231" t="n">
+        <v>3070.066666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>3057.216666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8630,18 +10221,21 @@
         <v>52.5753</v>
       </c>
       <c r="G232" t="n">
+        <v>3069.133333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>3057.533333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8665,18 +10259,21 @@
         <v>1</v>
       </c>
       <c r="G233" t="n">
+        <v>3068</v>
+      </c>
+      <c r="H233" t="n">
         <v>3057.716666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8700,18 +10297,21 @@
         <v>2</v>
       </c>
       <c r="G234" t="n">
+        <v>3066.733333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>3057.733333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8735,18 +10335,21 @@
         <v>2</v>
       </c>
       <c r="G235" t="n">
+        <v>3065.866666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>3057.716666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8770,18 +10373,21 @@
         <v>2</v>
       </c>
       <c r="G236" t="n">
+        <v>3064.866666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>3057.666666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8805,18 +10411,21 @@
         <v>3025.8639</v>
       </c>
       <c r="G237" t="n">
+        <v>3062.4</v>
+      </c>
+      <c r="H237" t="n">
         <v>3057.366666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8840,18 +10449,21 @@
         <v>46</v>
       </c>
       <c r="G238" t="n">
+        <v>3059.2</v>
+      </c>
+      <c r="H238" t="n">
         <v>3056.833333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8875,18 +10487,21 @@
         <v>10.6775</v>
       </c>
       <c r="G239" t="n">
+        <v>3055.8</v>
+      </c>
+      <c r="H239" t="n">
         <v>3056.133333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8910,18 +10525,21 @@
         <v>7</v>
       </c>
       <c r="G240" t="n">
+        <v>3052.066666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>3055.316666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8945,18 +10563,21 @@
         <v>2</v>
       </c>
       <c r="G241" t="n">
+        <v>3048.8</v>
+      </c>
+      <c r="H241" t="n">
         <v>3054.733333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8980,18 +10601,21 @@
         <v>549.649</v>
       </c>
       <c r="G242" t="n">
+        <v>3044.6</v>
+      </c>
+      <c r="H242" t="n">
         <v>3054.116666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9015,18 +10639,21 @@
         <v>911.2044</v>
       </c>
       <c r="G243" t="n">
+        <v>3040.8</v>
+      </c>
+      <c r="H243" t="n">
         <v>3053.45</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9050,18 +10677,21 @@
         <v>886.5896</v>
       </c>
       <c r="G244" t="n">
+        <v>3037.133333333333</v>
+      </c>
+      <c r="H244" t="n">
         <v>3052.783333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9085,18 +10715,21 @@
         <v>656.7598</v>
       </c>
       <c r="G245" t="n">
+        <v>3033.4</v>
+      </c>
+      <c r="H245" t="n">
         <v>3052.1</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9120,18 +10753,21 @@
         <v>552.9134</v>
       </c>
       <c r="G246" t="n">
+        <v>3029.933333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>3051.416666666667</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9155,18 +10791,21 @@
         <v>255.3295</v>
       </c>
       <c r="G247" t="n">
+        <v>3026.333333333333</v>
+      </c>
+      <c r="H247" t="n">
         <v>3050.9</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9190,18 +10829,21 @@
         <v>422.0001</v>
       </c>
       <c r="G248" t="n">
+        <v>3022.933333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>3050.216666666667</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9225,18 +10867,21 @@
         <v>498.9849</v>
       </c>
       <c r="G249" t="n">
+        <v>3019.666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>3049.466666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9260,18 +10905,21 @@
         <v>614.2381</v>
       </c>
       <c r="G250" t="n">
+        <v>3017.4</v>
+      </c>
+      <c r="H250" t="n">
         <v>3048.983333333333</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9295,18 +10943,21 @@
         <v>249.0286</v>
       </c>
       <c r="G251" t="n">
+        <v>3015.333333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>3048.533333333333</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9330,18 +10981,21 @@
         <v>38.1236</v>
       </c>
       <c r="G252" t="n">
+        <v>3015</v>
+      </c>
+      <c r="H252" t="n">
         <v>3048.266666666667</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9365,18 +11019,21 @@
         <v>1</v>
       </c>
       <c r="G253" t="n">
+        <v>3015.466666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>3048.1</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9400,18 +11057,21 @@
         <v>172.8196</v>
       </c>
       <c r="G254" t="n">
+        <v>3015.8</v>
+      </c>
+      <c r="H254" t="n">
         <v>3047.8</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9435,18 +11095,21 @@
         <v>50.7442</v>
       </c>
       <c r="G255" t="n">
+        <v>3016.6</v>
+      </c>
+      <c r="H255" t="n">
         <v>3047.5</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9470,18 +11133,21 @@
         <v>1</v>
       </c>
       <c r="G256" t="n">
+        <v>3016.733333333333</v>
+      </c>
+      <c r="H256" t="n">
         <v>3047.283333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9505,18 +11171,21 @@
         <v>336.08</v>
       </c>
       <c r="G257" t="n">
+        <v>3017.066666666667</v>
+      </c>
+      <c r="H257" t="n">
         <v>3047.1</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9540,18 +11209,21 @@
         <v>184.6776</v>
       </c>
       <c r="G258" t="n">
+        <v>3018.466666666667</v>
+      </c>
+      <c r="H258" t="n">
         <v>3047.1</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9575,18 +11247,21 @@
         <v>140</v>
       </c>
       <c r="G259" t="n">
+        <v>3019.8</v>
+      </c>
+      <c r="H259" t="n">
         <v>3046.866666666667</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9610,18 +11285,21 @@
         <v>136.4567</v>
       </c>
       <c r="G260" t="n">
+        <v>3020.933333333333</v>
+      </c>
+      <c r="H260" t="n">
         <v>3046.666666666667</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9645,18 +11323,21 @@
         <v>19.3667</v>
       </c>
       <c r="G261" t="n">
+        <v>3021.6</v>
+      </c>
+      <c r="H261" t="n">
         <v>3046.15</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9680,18 +11361,21 @@
         <v>34.82</v>
       </c>
       <c r="G262" t="n">
+        <v>3022.266666666667</v>
+      </c>
+      <c r="H262" t="n">
         <v>3045.55</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9715,18 +11399,21 @@
         <v>757.3699</v>
       </c>
       <c r="G263" t="n">
+        <v>3022.933333333333</v>
+      </c>
+      <c r="H263" t="n">
         <v>3044.9</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9750,18 +11437,21 @@
         <v>437.8115686404234</v>
       </c>
       <c r="G264" t="n">
+        <v>3023.8</v>
+      </c>
+      <c r="H264" t="n">
         <v>3044.3</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9785,18 +11475,21 @@
         <v>67.1626</v>
       </c>
       <c r="G265" t="n">
+        <v>3022.933333333333</v>
+      </c>
+      <c r="H265" t="n">
         <v>3043.433333333333</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9820,18 +11513,21 @@
         <v>128.7599</v>
       </c>
       <c r="G266" t="n">
+        <v>3022</v>
+      </c>
+      <c r="H266" t="n">
         <v>3042.533333333333</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9855,18 +11551,21 @@
         <v>325.0775</v>
       </c>
       <c r="G267" t="n">
+        <v>3020.866666666667</v>
+      </c>
+      <c r="H267" t="n">
         <v>3041.866666666667</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9890,18 +11589,21 @@
         <v>848.4809</v>
       </c>
       <c r="G268" t="n">
+        <v>3018.733333333333</v>
+      </c>
+      <c r="H268" t="n">
         <v>3041.05</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9925,18 +11627,21 @@
         <v>804.2665</v>
       </c>
       <c r="G269" t="n">
+        <v>3017.266666666667</v>
+      </c>
+      <c r="H269" t="n">
         <v>3040.05</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9960,18 +11665,21 @@
         <v>700</v>
       </c>
       <c r="G270" t="n">
+        <v>3015.8</v>
+      </c>
+      <c r="H270" t="n">
         <v>3039.05</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9995,18 +11703,21 @@
         <v>34.3444</v>
       </c>
       <c r="G271" t="n">
+        <v>3014</v>
+      </c>
+      <c r="H271" t="n">
         <v>3038</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10030,18 +11741,21 @@
         <v>240.9515</v>
       </c>
       <c r="G272" t="n">
+        <v>3012.666666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>3036.866666666667</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10065,18 +11779,401 @@
         <v>2349.5612</v>
       </c>
       <c r="G273" t="n">
+        <v>3010.466666666667</v>
+      </c>
+      <c r="H273" t="n">
         <v>3035.566666666667</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2995</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2995</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2995</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2995</v>
+      </c>
+      <c r="F274" t="n">
+        <v>230</v>
+      </c>
+      <c r="G274" t="n">
+        <v>3008.333333333333</v>
+      </c>
+      <c r="H274" t="n">
+        <v>3034.266666666667</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2995</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2993</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2995</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2993</v>
+      </c>
+      <c r="F275" t="n">
+        <v>420.7142</v>
+      </c>
+      <c r="G275" t="n">
+        <v>3006.066666666667</v>
+      </c>
+      <c r="H275" t="n">
+        <v>3032.866666666667</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2993</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2992</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2993</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2992</v>
+      </c>
+      <c r="F276" t="n">
+        <v>235.5356</v>
+      </c>
+      <c r="G276" t="n">
+        <v>3004.2</v>
+      </c>
+      <c r="H276" t="n">
+        <v>3031.45</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2998</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2997</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2998</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2997</v>
+      </c>
+      <c r="F277" t="n">
+        <v>313.7523</v>
+      </c>
+      <c r="G277" t="n">
+        <v>3002.666666666667</v>
+      </c>
+      <c r="H277" t="n">
+        <v>3030.1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2994</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2993</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2994</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2993</v>
+      </c>
+      <c r="F278" t="n">
+        <v>147.5069</v>
+      </c>
+      <c r="G278" t="n">
+        <v>3000.866666666667</v>
+      </c>
+      <c r="H278" t="n">
+        <v>3028.683333333333</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3010</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3010</v>
+      </c>
+      <c r="D279" t="n">
+        <v>3010</v>
+      </c>
+      <c r="E279" t="n">
+        <v>3010</v>
+      </c>
+      <c r="F279" t="n">
+        <v>138</v>
+      </c>
+      <c r="G279" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H279" t="n">
+        <v>3027.55</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3019</v>
+      </c>
+      <c r="C280" t="n">
+        <v>3019</v>
+      </c>
+      <c r="D280" t="n">
+        <v>3019</v>
+      </c>
+      <c r="E280" t="n">
+        <v>3019</v>
+      </c>
+      <c r="F280" t="n">
+        <v>69.62860000000001</v>
+      </c>
+      <c r="G280" t="n">
+        <v>3000.6</v>
+      </c>
+      <c r="H280" t="n">
+        <v>3026.7</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3030</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3030</v>
+      </c>
+      <c r="D281" t="n">
+        <v>3030</v>
+      </c>
+      <c r="E281" t="n">
+        <v>3030</v>
+      </c>
+      <c r="F281" t="n">
+        <v>568.6247</v>
+      </c>
+      <c r="G281" t="n">
+        <v>3001.933333333333</v>
+      </c>
+      <c r="H281" t="n">
+        <v>3026.033333333333</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3031</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3033</v>
+      </c>
+      <c r="D282" t="n">
+        <v>3033</v>
+      </c>
+      <c r="E282" t="n">
+        <v>3031</v>
+      </c>
+      <c r="F282" t="n">
+        <v>235.4693</v>
+      </c>
+      <c r="G282" t="n">
+        <v>3003.466666666667</v>
+      </c>
+      <c r="H282" t="n">
+        <v>3025.433333333333</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3033</v>
+      </c>
+      <c r="C283" t="n">
+        <v>3033</v>
+      </c>
+      <c r="D283" t="n">
+        <v>3033</v>
+      </c>
+      <c r="E283" t="n">
+        <v>3033</v>
+      </c>
+      <c r="F283" t="n">
+        <v>22.9441</v>
+      </c>
+      <c r="G283" t="n">
+        <v>3005.6</v>
+      </c>
+      <c r="H283" t="n">
+        <v>3024.75</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest LINK.xlsx
+++ b/BackTest/2019-10-31 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2899.468834109816</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2298.862434109816</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1747.190234109816</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1746.190234109816</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2406.385934109816</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2135.498157477062</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2132.498157477062</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2111.498709327701</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2099.498709327701</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2099.498709327701</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2082.498856386524</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2664.108856386525</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2314.108856386525</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2409.143956386525</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2409.143956386525</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2411.143956386525</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3583.143956386525</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3583.143956386525</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3570.143956386525</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3660.731956386525</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4164.174456386525</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-4168.388056386525</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4196.257956386525</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4920.067956386525</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-4944.067856386525</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-4606.256556386525</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4609.256556386525</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-5684.529056386525</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6215.879456386525</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5963.880215974428</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6041.150215974429</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-13022.52161597443</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-15950.06621597443</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-15950.06621597443</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-16942.48671597443</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-17023.14191597443</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-17016.84125019547</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-17139.87585019547</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-17156.55835019546</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-17143.29306452891</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-17157.29306452891</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-17094.29306452891</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-17346.89576452891</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-17350.96266452891</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-17332.96266452891</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-17399.24756452891</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3322,14 +3322,10 @@
         <v>-28506.1968098393</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2947</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3359,19 +3355,11 @@
         <v>-28631.06310983931</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2946</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3403,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3442,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3481,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3556,17 +3520,15 @@
         <v>-28816.91040983931</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2926</v>
+      </c>
       <c r="J95" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2926</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3595,15 +3557,17 @@
         <v>-28636.72420983931</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2928</v>
+      </c>
       <c r="J96" t="n">
-        <v>2947</v>
+        <v>2926</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3634,17 +3598,17 @@
         <v>-27316.19090983931</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>2942</v>
       </c>
       <c r="J97" t="n">
-        <v>2947</v>
+        <v>2926</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3675,19 +3639,15 @@
         <v>-27316.19090983931</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>2955</v>
       </c>
       <c r="J98" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2955</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3716,17 +3676,17 @@
         <v>-27443.40700983931</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>2955</v>
       </c>
       <c r="J99" t="n">
-        <v>2947</v>
+        <v>2955</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3757,17 +3717,17 @@
         <v>-27313.40710983931</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>2940</v>
       </c>
       <c r="J100" t="n">
-        <v>2947</v>
+        <v>2955</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3798,19 +3758,15 @@
         <v>-26493.38970983931</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>2956</v>
       </c>
       <c r="J101" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2956</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3843,11 +3799,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2947</v>
+        <v>2956</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3878,17 +3834,15 @@
         <v>-25571.38970983931</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2947</v>
+        <v>2956</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3922,14 +3876,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3958,19 +3906,11 @@
         <v>-25533.20977118385</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2958</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4002,14 +3942,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4038,19 +3972,11 @@
         <v>-24620.24550983931</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2978</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4079,19 +4005,11 @@
         <v>-24620.24550983931</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2978</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4120,19 +4038,11 @@
         <v>-24612.24550983931</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2978</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4161,19 +4071,11 @@
         <v>-24612.24550983931</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2995</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4205,14 +4107,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4244,14 +4140,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4283,14 +4173,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4322,14 +4206,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4361,14 +4239,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4400,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4439,14 +4305,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4478,14 +4338,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4517,14 +4371,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4556,14 +4404,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4595,14 +4437,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4634,14 +4470,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4673,14 +4503,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4712,14 +4536,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4751,14 +4569,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4790,14 +4602,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4829,14 +4635,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4868,14 +4668,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4907,14 +4701,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4946,14 +4734,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4982,19 +4764,11 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2989</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5023,19 +4797,11 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2989</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5064,19 +4830,11 @@
         <v>-30638.28443897883</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2989</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5105,19 +4863,11 @@
         <v>-30719.63103897883</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2988</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5146,19 +4896,11 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2982</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5187,19 +4929,11 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2989</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5228,19 +4962,11 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2989</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5269,19 +4995,11 @@
         <v>-29556.39663897883</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2989</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5310,19 +5028,11 @@
         <v>-29556.39663897883</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2981</v>
-      </c>
-      <c r="J139" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5351,19 +5061,11 @@
         <v>-30851.64553897883</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2981</v>
-      </c>
-      <c r="J140" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5395,14 +5097,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5431,19 +5127,11 @@
         <v>-30943.17313897883</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2982</v>
-      </c>
-      <c r="J142" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5475,14 +5163,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5511,19 +5193,11 @@
         <v>-31063.17313897883</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2985</v>
-      </c>
-      <c r="J144" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5555,14 +5229,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5594,14 +5262,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5630,15 +5292,15 @@
         <v>-33327.50293897883</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2976</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -5672,9 +5334,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5711,9 +5371,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5750,9 +5408,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5789,9 +5445,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5828,9 +5482,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5867,9 +5519,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,9 +5556,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5945,9 +5593,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5984,9 +5630,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6023,9 +5667,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6059,12 +5701,12 @@
         <v>-31475.46112205931</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2977</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6101,9 +5743,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6140,9 +5780,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6179,9 +5817,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6218,9 +5854,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6257,9 +5891,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6296,9 +5928,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6335,9 +5965,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6374,9 +6002,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6413,9 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6452,9 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6491,9 +6113,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6530,9 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6569,9 +6187,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6608,9 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6647,9 +6261,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6686,9 +6298,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6725,9 +6335,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6764,9 +6372,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6803,9 +6409,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6842,9 +6446,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6881,9 +6483,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6920,9 +6520,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6959,9 +6557,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6998,9 +6594,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7037,9 +6631,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7076,9 +6668,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7115,9 +6705,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7154,9 +6742,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7193,9 +6779,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7229,12 +6813,12 @@
         <v>-29509.21583191536</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3001</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7268,12 +6852,12 @@
         <v>-29608.53323191536</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3002</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7307,12 +6891,12 @@
         <v>-29894.34883191536</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7346,12 +6930,12 @@
         <v>-29891.04523099035</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2991</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7388,9 +6972,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7427,9 +7009,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7466,9 +7046,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7505,9 +7083,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7544,9 +7120,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7583,9 +7157,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7619,12 +7191,12 @@
         <v>-28991.25813099035</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3033</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7658,12 +7230,12 @@
         <v>-28991.25813099035</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3021</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,12 +7269,12 @@
         <v>-28991.25813099035</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3021</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7736,12 +7308,12 @@
         <v>-28991.25813099035</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3021</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7775,12 +7347,12 @@
         <v>-28991.25813099035</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3021</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7814,12 +7386,12 @@
         <v>-30984.25363099035</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3021</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,12 +7425,12 @@
         <v>-30984.25363099035</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>3020</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7892,12 +7464,12 @@
         <v>-29984.25363099035</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>3020</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7931,12 +7503,12 @@
         <v>-29955.37373099035</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3025</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7973,9 +7545,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8012,9 +7582,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8051,9 +7619,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8090,9 +7656,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8126,12 +7690,12 @@
         <v>-30737.31023099035</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3016</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8165,12 +7729,12 @@
         <v>-30737.31023099035</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3024</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8207,9 +7771,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,12 +7805,12 @@
         <v>-30919.94403099035</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>3010</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8282,12 +7844,12 @@
         <v>-30919.94403099035</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3009</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8321,12 +7883,12 @@
         <v>-30985.30573099035</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3009</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8360,12 +7922,12 @@
         <v>-30487.30573099035</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>3005</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8399,12 +7961,12 @@
         <v>-30486.55573099035</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3016</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,12 +8000,12 @@
         <v>-30435.66843099035</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>2947</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3018</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8480,9 +8042,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8519,9 +8079,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8558,9 +8116,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8597,9 +8153,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8636,9 +8190,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8675,9 +8227,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8714,9 +8264,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8753,9 +8301,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8792,9 +8338,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8831,9 +8375,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8870,9 +8412,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8909,9 +8449,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8948,9 +8486,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8987,9 +8523,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9026,9 +8560,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9065,9 +8597,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9104,9 +8634,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9143,9 +8671,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9182,9 +8708,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9221,9 +8745,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9260,9 +8782,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9299,9 +8819,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9338,9 +8856,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9377,9 +8893,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9416,9 +8930,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9455,9 +8967,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9494,9 +9004,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9533,9 +9041,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9572,9 +9078,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9611,9 +9115,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9650,9 +9152,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9689,9 +9189,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9728,9 +9226,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9767,9 +9263,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9806,9 +9300,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9845,9 +9337,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9884,9 +9374,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9923,9 +9411,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9962,9 +9448,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10001,9 +9485,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10040,9 +9522,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10079,9 +9559,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10118,9 +9596,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10157,9 +9633,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10196,9 +9670,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10235,9 +9707,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10274,9 +9744,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10313,9 +9781,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10352,9 +9818,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10391,9 +9855,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10430,9 +9892,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10469,9 +9929,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10508,9 +9966,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10547,9 +10003,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10586,9 +10040,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10625,9 +10077,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10664,9 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10703,9 +10151,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10742,9 +10188,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10781,9 +10225,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10820,9 +10262,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10859,9 +10299,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10898,9 +10336,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10937,9 +10373,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10976,9 +10410,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11015,9 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11054,9 +10484,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11093,9 +10521,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11132,9 +10558,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11171,9 +10595,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11210,9 +10632,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11249,9 +10669,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11288,9 +10706,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11327,9 +10743,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11366,9 +10780,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11405,9 +10817,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11444,9 +10854,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11483,9 +10891,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11522,9 +10928,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11561,9 +10965,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11600,9 +11002,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11639,9 +11039,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11678,9 +11076,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11717,9 +11113,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11756,9 +11150,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11795,9 +11187,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11834,9 +11224,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11873,9 +11261,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11912,9 +11298,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11951,9 +11335,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11990,9 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12029,9 +11409,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,9 +11446,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12107,9 +11483,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12146,9 +11520,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12185,9 +11557,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12224,9 +11594,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12263,9 +11631,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12302,9 +11668,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12341,9 +11705,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12380,9 +11742,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12419,9 +11779,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12458,9 +11816,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12497,9 +11853,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12536,9 +11890,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12575,9 +11927,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12614,9 +11964,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12653,9 +12001,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12692,9 +12038,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12731,9 +12075,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12770,9 +12112,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12809,9 +12149,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12848,9 +12186,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12887,9 +12223,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12926,9 +12260,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12965,9 +12297,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13004,9 +12334,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13043,9 +12371,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13082,9 +12408,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13121,9 +12445,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13160,9 +12482,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13199,9 +12519,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2947</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13213,6 +12531,6 @@
       <c r="M341" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest LINK.xlsx
+++ b/BackTest/2019-10-31 BackTest LINK.xlsx
@@ -814,7 +814,7 @@
         <v>-2635.892134109816</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2433.814734109816</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2132.498157477062</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2111.498709327701</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2111.498709327701</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2099.498709327701</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2099.498709327701</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2082.498856386524</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2664.108856386525</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2314.108856386525</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2409.143956386525</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2409.143956386525</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2411.143956386525</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3583.143956386525</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3583.143956386525</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3570.143956386525</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3660.731956386525</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4164.174456386525</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -3520,10 +3520,14 @@
         <v>-28816.91040983931</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2926</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2926</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3553,11 +3557,19 @@
         <v>-28636.72420983931</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2928</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3598,19 @@
         <v>-27316.19090983931</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2942</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,10 +3639,14 @@
         <v>-27316.19090983931</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2955</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2955</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
@@ -3652,11 +3676,19 @@
         <v>-27443.40700983931</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2955</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2955</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3717,19 @@
         <v>-27313.40710983931</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2940</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2955</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,10 +3758,14 @@
         <v>-26493.38970983931</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2956</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2956</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3751,11 +3795,19 @@
         <v>-25551.38970983931</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2971</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2956</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3836,19 @@
         <v>-25571.38970983931</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2975</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2956</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4510,7 +4570,7 @@
         <v>-28715.03417539115</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4603,7 @@
         <v>-28283.03417539115</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4636,7 @@
         <v>-28270.03443897883</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4669,7 @@
         <v>-28269.03443897883</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4702,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4735,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4768,7 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,10 +4801,14 @@
         <v>-28964.04713897883</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2989</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2989</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4774,11 +4838,19 @@
         <v>-30638.28443897883</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2989</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4879,17 @@
         <v>-30719.63103897883</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4918,17 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4957,17 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4996,17 @@
         <v>-29380.86353897883</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5035,17 @@
         <v>-29556.39663897883</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5074,17 @@
         <v>-29556.39663897883</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5113,19 @@
         <v>-30851.64553897883</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2981</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5154,19 @@
         <v>-30620.12383897883</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2980</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5195,19 @@
         <v>-30943.17313897883</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2982</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5236,19 @@
         <v>-30942.17313897883</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2980</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5277,19 @@
         <v>-31063.17313897883</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2985</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5318,17 @@
         <v>-31070.50293897883</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5357,19 @@
         <v>-31072.50293897883</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2978</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5398,19 @@
         <v>-33327.50293897883</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2976</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5439,19 @@
         <v>-33069.83293897883</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2961</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5480,19 @@
         <v>-32869.83293897883</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2963</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5521,17 @@
         <v>-32383.86483897883</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5560,17 @@
         <v>-32387.86483897883</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5599,17 @@
         <v>-32387.86483897883</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5677,17 @@
         <v>-31344.54846216627</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5755,17 @@
         <v>-31475.46112205931</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5875,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5953,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6031,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6070,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6145,17 @@
         <v>-31061.54458872598</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6184,17 @@
         <v>-31061.54458872598</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6223,17 @@
         <v>-30562.43183191535</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6262,17 @@
         <v>-31573.07953191535</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6304,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6343,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6379,17 @@
         <v>-30661.56033191536</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6418,17 @@
         <v>-30709.94413191536</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6457,17 @@
         <v>-30371.94413191536</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6496,17 @@
         <v>-29239.79773191535</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6535,17 @@
         <v>-29239.79773191535</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6574,17 @@
         <v>-29168.79773191535</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6613,17 @@
         <v>-29168.79773191535</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6655,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6694,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6772,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6850,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6889,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6925,17 @@
         <v>-29602.90093191536</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6964,17 @@
         <v>-29647.21573191536</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +7003,17 @@
         <v>-29509.21583191536</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7045,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7084,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7120,19 @@
         <v>-29891.04523099035</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2991</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7164,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7203,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7242,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7281,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7320,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7359,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7398,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7437,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7476,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7515,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7554,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7593,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7632,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7671,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7710,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7749,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7788,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7827,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7866,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7905,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7944,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7983,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8022,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8061,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8100,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8139,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8178,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8217,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8256,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8295,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8334,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8373,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8412,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8451,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8490,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8529,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8568,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8607,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8646,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8685,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8724,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8763,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8802,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8841,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8880,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8919,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8958,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8997,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +9036,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +9075,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +9114,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +9153,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +9192,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +9231,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +9270,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +9309,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +9348,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +9387,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +9426,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9465,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9504,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +9543,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +9582,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9621,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9660,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9699,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9738,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9777,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9816,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9855,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9894,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9933,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9972,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +10011,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +10050,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +10089,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +10128,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +10167,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +10206,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +10245,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +10284,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +10323,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +10362,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +10401,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +10440,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +10479,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +10518,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +10557,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +10596,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +10635,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +10674,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +10713,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +10752,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10791,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10830,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +10869,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +10908,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10947,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10986,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +11025,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +11064,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +11103,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +11142,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +11181,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +11220,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +11259,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +11298,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +11337,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +11376,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +11415,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +11454,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +11493,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +11532,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +11571,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +11610,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +11649,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +11688,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +11727,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +11766,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +11805,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +11844,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +11883,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +11922,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +11961,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +12000,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +12039,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +12117,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +12156,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +12195,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +12234,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +12273,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +12312,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11113,8 +12351,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +12390,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +12429,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +12468,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +12507,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +12546,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +12585,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +12624,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +12663,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +12702,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +12741,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2989</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,15 +12777,15 @@
         <v>-34622.28523718825</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>2997</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2989</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L336" t="n">
@@ -11512,12 +12816,12 @@
         <v>-34484.28523718825</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>2993</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2989</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11551,12 +12855,12 @@
         <v>-34414.65663718825</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3010</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2989</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11593,7 +12897,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2989</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11630,7 +12936,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2989</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11667,7 +12975,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2989</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
